--- a/spreadsheet/sqldb_security_checklist.en.xlsx
+++ b/spreadsheet/sqldb_security_checklist.en.xlsx
@@ -1100,17 +1100,17 @@
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQLDB is having regular automated backups</t>
+          <t>Protect your backup data with encryption and store keys safely in Azure Key Vault</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>Azure SQL Database uses SQL Server technology to create full backups every week, differential backup every 12-24 hours, and transaction log backup every 5 to 10 minutes. By default, SQL Database stores data in geo-redundant storage blobs that are replicated to a paired region.</t>
+          <t>Ensure that your backups are protected against attacks. This should include encryption of the backups to protect against loss of confidentiality. For regular Azure service backup, backup data is automatically encrypted using Azure platform-managed keys. You can also choose to encrypt the backup using a customer-managed key. In this case, ensure this customer-managed key in the key vault is also in the backup scope.</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-1-ensure-regular-automated-backups</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-2-encrypt-backup-data</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>e2518261-b3bc-4bd1-b331-637fb2df833f</t>
+          <t>676f6951-0368-49e9-808d-c33a692c9a64</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Enable geo-redundant backup storage to protect against single region failure and data loss</t>
+          <t>Configure Azure SQL Database automated backups</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>By default, SQL Database stores data in geo-redundant storage blobs that are replicated to a paired region. For SQL Database, the backup storage redundancy can be configured at the time of database creation or can be updated for an existing database; the changes made to an existing database apply to future backups only.</t>
+          <t>Azure SQL Database uses SQL Server technology to create full backups every week, differential backup every 12-24 hours, and transaction log backup every 5 to 10 minutes. By default, SQL Database stores data in geo-redundant storage blobs that are replicated to a paired region.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/automated-backups-overview?tabs=single-database&amp;view=azuresql#backup-storage-redundancy</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-1-ensure-regular-automated-backups</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>f8c7cda2-3ed7-43fb-a100-85dcd12a0ee4</t>
+          <t>e2518261-b3bc-4bd1-b331-637fb2df833f</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,22 +1200,22 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Protect your backup data with encryption and store keys safely in Azure Key Vault</t>
+          <t>Enable geo-redundant backup storage to protect against single region failure and data loss</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Ensure that your backups are protected against attacks. This should include encryption of the backups to protect against loss of confidentiality. For regular Azure service backup, backup data is automatically encrypted using Azure platform-managed keys. You can also choose to encrypt the backup using a customer-managed key. In this case, ensure this customer-managed key in the key vault is also in the backup scope.</t>
+          <t>By default, SQL Database stores data in geo-redundant storage blobs that are replicated to a paired region. For SQL Database, the backup storage redundancy can be configured at the time of database creation or can be updated for an existing database; the changes made to an existing database apply to future backups only.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-2-encrypt-backup-data</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/automated-backups-overview?tabs=single-database&amp;view=azuresql#backup-storage-redundancy</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>676f6951-0368-49e9-808d-c33a692c9a64</t>
+          <t>f8c7cda2-3ed7-43fb-a100-85dcd12a0ee4</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,22 +1245,22 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Code</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Source Control and Code Review</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Periodically validate all backups including customer-managed keys</t>
+          <t>Use Source Control systems to store, maintain and review application code deployed inside Azure SQLDB Database</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>It is recommended that validation of application readiness for recovery workflow is performed periodically. Verifying the application behavior and implications of data loss and/or the disruption that failover involves is a good engineering practice. It is also a requirement by most industry standards as part of business continuity certification. Performing a disaster recovery drill consists of: (1) Simulating data tier outage (2) Recovering (3) Validate application integrity post recovery.</t>
+          <t>Malicious code can potentially circumvent security controls. Before deploying custom code to production, it is essential to review what's being deployed. Use a database tool like Azure Data Studio that supports source control. Implement tools and logic for code analysis, vulnerability and credential scanning.</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-3-validate-all-backups-including-customer-managed-keys</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>a604bd0b-e62d-4037-8318-b62a476ea771</t>
+          <t>7ca9f006-d2a9-4652-951c-de8e4ac5e76e</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,22 +1295,22 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Data Discovery and Classification</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault</t>
+          <t>Data Discovery and Classification</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Mitigate risk of Azure Key Vault (AKV) lost keys used in Azure SQL Database</t>
+          <t>Plan and configure Data Discovery &amp; Classification to protect the sensitive data</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have measures in place to prevent and recover from the loss of keys. Enable soft delete and purge protection in Azure Key Vault to protect keys against accidental or malicious deletion.</t>
+          <t>Discover columns that potentially contain sensitive data. What is considered sensitive data heavily depends on the customer, compliance regulation, etc., and needs to be evaluated by the users in charge of that data. Classify the columns to use advanced sensitivity-based auditing and protection scenarios. Review results of automated discovery and finalize the classification if necessary.</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
@@ -1326,17 +1326,13 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/key-vault/general/key-vault-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#identify-and-tag-sensitive-data</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
-      <c r="L12" s="26" t="inlineStr">
-        <is>
-          <t>c7bb4dc5-4cd9-4215-a46d-9ddd2566f845</t>
-        </is>
-      </c>
+      <c r="L12" s="26" t="inlineStr"/>
       <c r="M12" s="26" t="n"/>
       <c r="N12" s="26" t="n"/>
       <c r="O12" s="26" t="n"/>
@@ -1355,12 +1351,12 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Use Azure SQL Database Data Discovery and Classification to discover, classify, label, and protect the sensitive</t>
+          <t>Review database classification state for accurate assessment</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Discover columns that potentially contain sensitive data. What is considered sensitive data heavily depends on the customer, compliance regulation, etc., and needs to be evaluated by the users in charge of that data. Classify the columns to use advanced sensitivity-based auditing and protection scenarios. Review results of automated discovery and finalize the classification if necessary.</t>
+          <t>Data Discovery &amp; Classification is built into Azure SQL Database, Azure SQL Managed Instance, and Azure Synapse Analytics. It provides basic capabilities for discovering, classifying, labeling, and reporting the sensitive data in your databases. You can view the database-classification state in a detailed dashboard in the Azure portal. Also, you can download a report in Excel format to use for compliance and auditing purposes and other needs.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
@@ -1376,13 +1372,17 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#identify-and-tag-sensitive-data</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
-      <c r="L13" s="26" t="inlineStr"/>
+      <c r="L13" s="26" t="inlineStr">
+        <is>
+          <t>0b30c724-9d42-4294-9db5-b60b121384bc</t>
+        </is>
+      </c>
       <c r="M13" s="26" t="n"/>
       <c r="N13" s="26" t="n"/>
       <c r="O13" s="26" t="n"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>For complex and rich database schemas, or to manage at large scale, Microsoft Purview is highly recommended for Data Discovery and Classification</t>
+          <t>Use Microsoft Purview for complex and rich database schemas or to manage at scale</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
@@ -1441,22 +1441,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery and Classification</t>
+          <t>Data Masking</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery and Classification</t>
+          <t>Data Masking</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Regularly monitor the classification dashboard for an accurate assessment of the database's classification state</t>
+          <t>Use Data Masking to prevent unauthorized non-admin users data access if no encryption is possible</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery &amp; Classification is built into Azure SQL Database, Azure SQL Managed Instance, and Azure Synapse Analytics. It provides basic capabilities for discovering, classifying, labeling, and reporting the sensitive data in your databases. You can view the database-classification state in a detailed dashboard in the Azure portal. Also, you can download a report in Excel format to use for compliance and auditing purposes and other needs.</t>
+          <t>Usage of this feature is recommended only if no encryption strategy is feasible, and there is a specific requirement to preserve data types and formats. Dynamic data masking limits sensitive data exposure by masking it to non-privileged users. Dynamic data masking helps prevent unauthorized access to sensitive data by enabling customers to designate how much of the sensitive data to reveal with minimal impact on the application layer.</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1472,7 +1472,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/dynamic-data-masking-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1480,7 +1480,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>0b30c724-9d42-4294-9db5-b60b121384bc</t>
+          <t>9391fd50-135e-453e-90a7-c1a23f88cc13</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1491,27 +1491,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Data Masking</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Data Masking</t>
+          <t>Advanced Threat Protection</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Use Data Masking to prevent unauthorized non-admin users data access if no encryption is possible</t>
+          <t>Review and complete Advanced Threat Protection (ATP) configuration</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Usage of this feature is recommended only if no encryption strategy is feasible, and there is a specific requirement to preserve data types and formats. Dynamic data masking limits sensitive data exposure by masking it to non-privileged users. Dynamic data masking helps prevent unauthorized access to sensitive data by enabling customers to designate how much of the sensitive data to reveal with minimal impact on the application layer.</t>
+          <t>SQL Advanced Threat Detection (ATP) provides a layer of security that detects potential vulnerabilities and anomalous activity in databases such as SQL injection attacks and unusual behavior patterns. When a potential threat is detected Threat Detection sends an actionable real-time alert by email and in Microsoft Defender for Cloud, which includes clear investigation and remediation steps for the specific threat.</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1522,7 +1522,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/dynamic-data-masking-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1530,7 +1530,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>9391fd50-135e-453e-90a7-c1a23f88cc13</t>
+          <t>4e52d73f-5d37-428f-b3a2-e6997e835979</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Enable Microsoft Defender for Azure SQL at the subscription level</t>
+          <t>Enable Microsoft Defender for Azure SQL</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Vulnerability Assessment</t>
+          <t>Defender for Azure SQL</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Review and complete Vulnerability Assessment (VA) configuration</t>
+          <t>Prepare a security response plan to promptly react to Microsoft Defender for Azure SQL alerts</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Azure SQLDB vulnerability assessment is a service that provides visibility into your security state. Vulnerability assessment includes actionable steps to resolve security issues and enhance your database security. It can help you to monitor a dynamic database environment where changes are difficult to track and improve your SQL security posture.</t>
+          <t>Microsoft Defender for Azure SQL ATP detects anomalous activities indicating unusual and potentially harmful attempts to access or exploit databases. Alerts can be configured and generated and will be reported in the Defender for console.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1622,7 +1622,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1630,7 +1630,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>a6101ae7-534c-45ab-86fd-b34c55ea21ca</t>
+          <t>ca342fdf-d25a-4427-b105-fcd50ff8a0ea</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Advanced Threat Protection</t>
+          <t>Vulnerability Assessment</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Review and complete Advanced Threat Protection (ATP) configuration</t>
+          <t>Configure Vulnerability Assessment (VA) findings and review recommendations</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>SQL Advanced Threat Detection (ATP) provides a layer of security that detects potential vulnerabilities and anomalous activity in databases such as SQL injection attacks and unusual behavior patterns. When a potential threat is detected Threat Detection sends an actionable real-time alert by email and in Microsoft Defender for Cloud, which includes clear investigation and remediation steps for the specific threat.</t>
+          <t>Azure SQLDB vulnerability assessment is a service that provides visibility into your security state. Vulnerability assessment includes actionable steps to resolve security issues and enhance your database security. It can help you to monitor a dynamic database environment where changes are difficult to track and improve your SQL security posture.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
@@ -1672,7 +1672,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
+          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-overview</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1680,7 +1680,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>4e52d73f-5d37-428f-b3a2-e6997e835979</t>
+          <t>a6101ae7-534c-45ab-86fd-b34c55ea21ca</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Defender for Azure SQL</t>
+          <t>Vulnerability Assessment</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Prepare a security response plan to promptly react to Microsoft Defender for Azure SQL alerts</t>
+          <t>Regularly review of Vulnerability Assessment (VA) findings and recommendations and prepare a plan to fix</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Azure SQL ATP detects anomalous activities indicating unusual and potentially harmful attempts to access or exploit databases. Alerts can be configured and generated and will be reported in the Defender for console.</t>
+          <t>Microsoft Defender for Cloud provides vulnerability assessment for your Azure SQL Databases. Vulnerability assessment scans your databases for software vulnerabilities and provides a list of findings. You can use the findings to remediate software vulnerabilities and disable findings.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
@@ -1722,7 +1722,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
+          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-find?view=azuresql</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ca342fdf-d25a-4427-b105-fcd50ff8a0ea</t>
+          <t>c8c5f112-1e50-4f77-9264-8195b4cd61ac</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1741,27 +1741,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Vulnerability Assessment</t>
+          <t>Always Encrypted</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Regularly review of Vulnerability Assessment (VA) findings and recommendations and prepare a plan to fix</t>
+          <t>To protect sensitive PII data from admin users, consider using Always Encrypted</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud provides vulnerability assessment for your Azure SQL Databases. Vulnerability assessment scans your databases for software vulnerabilities and provides a list of findings. You can use the findings to remediate software vulnerabilities and disable findings.</t>
+          <t>Use Always Encrypted to ensure sensitive data isn't exposed in plaintext in Azure SQL Database or SQL Managed Instance, even in memory/in use. Always Encrypted protects the data from Database Administrators (DBAs) and cloud admins (or bad actors who can impersonate high-privileged but unauthorized users) and gives you more control over who can access your data.</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1772,7 +1772,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-find?view=azuresql</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#protect-sensitive-data-in-use-from-high-privileged-unauthorized-users</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1780,7 +1780,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>c8c5f112-1e50-4f77-9264-8195b4cd61ac</t>
+          <t>d2f928aa-ccd3-4167-8c5d-35848428564b</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1791,27 +1791,27 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Source Control and Code Review</t>
+          <t>Always Encrypted</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Use Source Control systems to store, maintain and review application code deployed inside Azure SQLDB Database</t>
+          <t>If protecting sensitive PII data from admin users is a key requirement, but Always Encrypted limitations cannot be tolerated, consider the adoption of Always Encrypted with Secure Enclaves</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>Malicious code can potentially circumvent security controls. Before deploying custom code to production, it is essential to review what's being deployed. Use a database tool like Azure Data Studio that supports source control. Implement tools and logic for code analysis, vulnerability and credential scanning.</t>
+          <t xml:space="preserve">Always Encrypted with Secure Enclaves expands confidential computing capabilities of Always Encrypted by enabling in-place encryption and richer confidential queries. Always Encrypted with Secure Enclaves addresses these limitations by allowing some computations on plaintext data inside a secure enclave on the server side. </t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/encryption/always-encrypted-enclaves</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7ca9f006-d2a9-4652-951c-de8e4ac5e76e</t>
+          <t>65d7e54a-10a6-4094-b673-9ff3809c9277</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Transparent Data Encryption</t>
+          <t>Cell-Level Encryption</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Ensure Transparent Data Encryption (TDE) is kept enabled</t>
+          <t>To protect sensitive PII data from non-admin users in specific table columns, consider using Cell-Level Encryption (CLE)</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Enabled by default, Transparent data encryption (TDE) helps to protect the database files against information disclosure by performing real-time encryption and decryption of the database, associated backups, and transaction log files 'at rest', without requiring changes to the application.</t>
+          <t>With Azure SQL Database, you can apply symmetric encryption to a column of data by using Transact-SQL. This approach is called cell-level encryption or column-level encryption (CLE), because you can use it to encrypt specific columns or even specific cells of data with different encryption keys. Doing so gives you more granular encryption capability than TDE, which encrypts data in pages.</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1872,7 +1872,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#control-access-of-application-users-to-sensitive-data-through-encryption</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1880,7 +1880,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>c614ac47-bebf-4061-b0a1-43e0c6b5e00d</t>
+          <t>c03ce136-e3d5-4e17-bf25-ed955ee480d3</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Use customer-managed keys (CMK) in Azure Key Vault (AKV) if you need increased transparency and granular control over the TDE protection</t>
+          <t>Ensure Transparent Data Encryption (TDE) is kept enabled</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>If separation of duties in the management of keys and data within the organization is required, leverage Customer Managed Keys (CMK) for Transparent Data Encryption (TDE) for your Azure SQLDB and use Azure Key Vault to store (refer to its checklist). Leverage this feature when you have strict security requirements which cannot be met by the managed service keys.</t>
+          <t>Enabled by default, Transparent data encryption (TDE) helps to protect the database files against information disclosure by performing real-time encryption and decryption of the database, associated backups, and transaction log files 'at rest', without requiring changes to the application.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1930,7 +1930,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2edb4165-4f54-47cc-a891-5c82c2f21e25</t>
+          <t>c614ac47-bebf-4061-b0a1-43e0c6b5e00d</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1946,22 +1946,22 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Cell-Level Encryption</t>
+          <t>Transparent Data Encryption</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>To protect sensitive PII data from non-admin users in specific table columns, consider using Cell-Level Encryption (CLE)</t>
+          <t>Use customer-managed keys (CMK) in Azure Key Vault (AKV) if you need increased transparency and granular control over the TDE protection</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>With Azure SQL Database, you can apply symmetric encryption to a column of data by using Transact-SQL. This approach is called cell-level encryption or column-level encryption (CLE), because you can use it to encrypt specific columns or even specific cells of data with different encryption keys. Doing so gives you more granular encryption capability than TDE, which encrypts data in pages.</t>
+          <t>If separation of duties in the management of keys and data within the organization is required, leverage Customer Managed Keys (CMK) for Transparent Data Encryption (TDE) for your Azure SQLDB and use Azure Key Vault to store (refer to its checklist). Leverage this feature when you have strict security requirements which cannot be met by the managed service keys.</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#control-access-of-application-users-to-sensitive-data-through-encryption</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-overview</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1980,7 +1980,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>c03ce136-e3d5-4e17-bf25-ed955ee480d3</t>
+          <t>2edb4165-4f54-47cc-a891-5c82c2f21e25</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1996,22 +1996,22 @@
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Always Encrypted</t>
+          <t>Transport Layer Security</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>To protect sensitive PII data from admin users, consider using Always Encrypted</t>
+          <t>Enforce minimum TLS version to the latest available</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Use Always Encrypted to ensure sensitive data isn't exposed in plaintext in Azure SQL Database or SQL Managed Instance, even in memory/in use. Always Encrypted protects the data from Database Administrators (DBAs) and cloud admins (or bad actors who can impersonate high-privileged but unauthorized users) and gives you more control over who can access your data.</t>
+          <t>The minimal Transport Layer Security (TLS) version setting allows customers to choose which version of TLS their SQL database uses. It's possible to change the minimum TLS version by using the Azure portal, Azure PowerShell, and the Azure CLI.</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#protect-sensitive-data-in-use-from-high-privileged-unauthorized-users</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-settings?source=recommendations&amp;view=azuresql&amp;tabs=azure-portal#minimal-tls-version</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2030,7 +2030,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2f928aa-ccd3-4167-8c5d-35848428564b</t>
+          <t>7754b605-57fd-4bcb-8213-52c39d8e8225</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2041,27 +2041,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Always Encrypted</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>If protecting sensitive PII data from admin users is a key requirement, but Always Encrypted limitations cannot be tolerated, consider the adoption of Always Encrypted with Secure Enclaves</t>
+          <t>Leverage Azure AD authentication for connections to Azure SQL Databases</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Always Encrypted with Secure Enclaves expands confidential computing capabilities of Always Encrypted by enabling in-place encryption and richer confidential queries. Always Encrypted with Secure Enclaves addresses these limitations by allowing some computations on plaintext data inside a secure enclave on the server side. </t>
+          <t>Use Azure Active Directory (Azure AD) authentication for centralized identity management. Use SQL Authentication only if really necessary and document as exceptions.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2072,14 +2072,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/encryption/always-encrypted-enclaves</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-overview</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>65d7e54a-10a6-4094-b673-9ff3809c9277</t>
+          <t>c9b8b6bf-2c6b-453d-b400-de9a43a549d7</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2090,27 +2090,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Transport Layer Security</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Enforce minimum TLS version to the latest available</t>
+          <t>Create a separate Azure AD group with two admin accounts for each Azure SQL Database logical server</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>The minimal Transport Layer Security (TLS) version setting allows customers to choose which version of TLS their SQL database uses. It's possible to change the minimum TLS version by using the Azure portal, Azure PowerShell, and the Azure CLI.</t>
+          <t>Using Azure AD groups simplifies permission management and both the group owner, and the resource owner can add/remove members to/from the group. Create a separate group for Azure AD administrators for each  logical server. Monitor Azure AD group membership changes using Azure AD audit activity reports.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2121,14 +2121,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-settings?source=recommendations&amp;view=azuresql&amp;tabs=azure-portal#minimal-tls-version</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#central-management-for-identities</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>7754b605-57fd-4bcb-8213-52c39d8e8225</t>
+          <t>29820254-1d14-4778-ae90-ff4aeba504a3</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure AD authentication for connections to Azure SQL Databases</t>
+          <t>Minimize the use of password-based authentication for applications</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Active Directory (Azure AD) authentication for centralized identity management. Use SQL Authentication only if really necessary and document as exceptions.</t>
+          <t>Ensure that distinct system and user assigned managed identities, that are dedicated to the function, with least permissions assigned, are used for communication from Azure services and applications to the Azure SQLDB databases.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2170,14 +2170,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#minimize-the-use-of-password-based-authentication-for-applications</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c9b8b6bf-2c6b-453d-b400-de9a43a549d7</t>
+          <t>df3a09ee-03bb-4198-8637-d141acf5f289</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2193,22 +2193,22 @@
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Managed Identities</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Create a separate Azure AD group with two admin accounts for each SQLDB instance</t>
+          <t>Assign Azure SQL Database a managed identity for outbound resource access</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Using Azure AD groups simplifies permission management and both the group owner, and the resource owner can add/remove members to/from the group. Create a separate group for Azure AD administrators for each server or managed instance. Monitor Azure AD group membership changes using Azure AD audit activity reports.</t>
+          <t>System or User assigned managed identities enable Azure SQLDB to authenticate to other cloud services (e.g. Azure Key Vault) without storing credentials in code. Once enabled, all necessary permissions can be granted via Azure role-based-access-control to the specific Azure SQLDB instance. Do not share user assigned managed identities across multiple services if not strictly required.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2219,14 +2219,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#central-management-for-identities</t>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>29820254-1d14-4778-ae90-ff4aeba504a3</t>
+          <t>69891194-5074-4e30-8f69-4efc3c580900</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2242,17 +2242,17 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Passwords</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enable Multi-Factor Authentication (MFA) in Azure AD using Conditional Access (CA) for interactive authentication</t>
+          <t>Minimize the use of password-based authentication for users</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Azure AD Multi-Factor Authentication (MFA) helps provides additional security by requiring more than one form of authentication. Use Azure AD Interactive authentication mode for Azure SQL Database and Azure SQL Managed Instance where a password is requested interactively, followed by Multi-Factor Authentication.</t>
+          <t>Use an Azure AD integrated authentication that eliminates the use of passwords. Password-based authentication methods are a weaker form of authentication. Credentials can be compromised or mistakenly given away. Use single sign-on authentication using Windows credentials. Federate the on-premises AD domain with Azure AD and use integrated Windows authentication (for domain-joined machines with Azure AD).</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2268,16 +2268,12 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-mfa-ssms-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-configure?view=azuresql&amp;tabs=azure-powershell#active-directory-integrated-authentication</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
-      <c r="L31" s="26" t="inlineStr">
-        <is>
-          <t>4bcb1d1c-7a32-455a-8456-ef22a0372240</t>
-        </is>
-      </c>
+      <c r="L31" s="26" t="inlineStr"/>
       <c r="M31" s="26" t="n"/>
       <c r="N31" s="26" t="n"/>
       <c r="O31" s="26" t="n"/>
@@ -2286,22 +2282,22 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Passwords</t>
+          <t>Database Digest</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Minimize the use of password-based authentication for users</t>
+          <t>Use Azure Confidential Ledger to store database digests only if advanced security features are required</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure AD integrated authentication that eliminates the use of passwords. Password-based authentication methods are a weaker form of authentication. Credentials can be compromised or mistakenly given away. Use single sign-on authentication using Windows credentials. Federate the on-premises AD domain with Azure AD and use integrated Windows authentication (for domain-joined machines with Azure AD).</t>
+          <t>The hash of the latest block in the database ledger is called the database digest. It represents the state of all ledger tables in the database at the time when the block was generated. Generating a database digest is efficient, because it involves computing only the hashes of the blocks that were recently appended. Azure Confidential Ledger is one of the supported store, it can be used and supports automatic generation and storage of database digests. Azure Ledger provides advanced security features like Blockchain Ledger Proof and Confidential Hardware Enclaves. Use it only if advanced security features are required, otherwise revert to Azure storage.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
@@ -2317,13 +2313,17 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-configure?view=azuresql&amp;tabs=azure-powershell#active-directory-integrated-authentication</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/technology-choices/multiparty-computing-service#confidential-ledger-and-azure-blob-storage</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
-      <c r="L32" s="26" t="inlineStr"/>
+      <c r="L32" s="26" t="inlineStr">
+        <is>
+          <t>0e853380-50ba-4bce-b2fd-5c7391c85ecc</t>
+        </is>
+      </c>
       <c r="M32" s="26" t="n"/>
       <c r="N32" s="26" t="n"/>
       <c r="O32" s="26" t="n"/>
@@ -2332,22 +2332,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Database Digest</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Minimize the use of password-based authentication for applications</t>
+          <t>If Azure storage account is used to store database digests, ensure security is properly configured</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>Ensure that distinct system and user assigned managed identities, that are dedicated to the function, with least permissions assigned, are used for communication from Azure services and applications to the Azure SQLDB databases.</t>
+          <t>The hash of the latest block in the database ledger is called the database digest. It represents the state of all ledger tables in the database at the time when the block was generated. Generating a database digest is efficient, because it involves computing only the hashes of the blocks that were recently appended. Azure Blob Storage with Immutable Storage feature can be used and supports automatic generation and storage of database digests. To prevent tampering of your digest files, configure and lock a retention policy for your container.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#minimize-the-use-of-password-based-authentication-for-applications</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-digest-management</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>df3a09ee-03bb-4198-8637-d141acf5f289</t>
+          <t>afefb2d3-95da-4ac9-acf5-33d18b32ef9a</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2382,27 +2382,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Managed Identities</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Assign Azure SQL Database a managed identity for outbound resource access</t>
+          <t>Schedule the Ledger verification process regularly to verify data integrity</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>System or User assigned managed identities enable Azure SQLDB to authenticate to other cloud services (e.g. Azure Key Vault) without storing credentials in code. Once enabled, all necessary permissions can be granted via Azure role-based-access-control to the specific Azure SQLDB instance. Do not share user assigned managed identities across multiple services if not strictly required.</t>
+          <t>Ledger provides a form of data integrity called forward integrity, which provides evidence of data tampering on data in your ledger tables. The database verification process takes as input one or more previously generated database digests. It then recomputes the hashes stored in the database ledger based on the current state of the ledger tables. If the computed hashes don't match the input digests, the verification fails. The failure indicates that the data has been tampered with. The verification process reports all inconsistencies that it detects.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2413,7 +2413,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-database-verification</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>69891194-5074-4e30-8f69-4efc3c580900</t>
+          <t>f8d4ffda-8aac-4cc6-b72b-c81cb8625420</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2432,22 +2432,22 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Protect and limit highly privileged users that have access to Azure SQL Database using Privileged Identity Management (PIM) and Just-in-time (JIT) access</t>
+          <t>If cryptographic proof of data integrity  is a critical requirement, Ledger feature should be considered</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>You should limit the number of highly privileged accounts or roles and protect these accounts at an elevated level. Users with this privilege can directly or indirectly read and modify every resource in your Azure environment. You can enable just-in-time (JIT) privileged access to Azure resources and Azure AD using Azure AD PIM. JIT grants temporary permissions to perform privileged tasks only when users need it. PIM can also generate security alerts when there is suspicious or unsafe activity in your Azure AD organization.</t>
+          <t>The Ledger feature provides tamper-evidence capabilities in your database. You can cryptographically attest to other parties, such as auditors or other business parties, that your data hasn't been tampered with. Ledger helps protect data from any attacker or high-privileged user, including database administrators (DBAs), system administrators, and cloud administrators.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
@@ -2463,7 +2463,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-1-protect-and-limit-highly-privileged-users</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-overview</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2471,7 +2471,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>c496b249-94d4-4c04-acd0-92c1da7be81f</t>
+          <t>2563f498-e2d3-42ea-9e7b-5517881a06a2</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2482,22 +2482,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Permissions</t>
+          <t>Recovery</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Ensure that users are assigned the minimum level of access necessarily to complete their job functions</t>
+          <t>Prepare a response plan to investigate and repair a database after a tampering event</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>The principle of least privilege states that users shouldn't have more privileges than needed to complete their tasks. High-privileged database and server users can perform many configuration and maintenance activities on the database and can also drop databases in Azure SQL instance. Tracking database owners and privileged accounts is important to avoid having excessive permission.</t>
+          <t>Depending on the type of tampering, there are cases where you can repair the ledger without losing data. In the article contained in the --More Info-- column, different scenarios and recovery techniques are described.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#implement-principle-of-least-privilege</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-how-to-recover-after-tampering</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2521,7 +2521,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5fe5281f-f0f9-4842-a682-8baf18bd8316</t>
+          <t>804fc554-6554-4842-91c1-713b32f99902</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2532,22 +2532,22 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Auditing</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Review and reconcile Azure SQL Database user access regularly using Azure AD access review and reports</t>
+          <t>Ensure that Azure SQL Database Auditing is enabled at the server level</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>Azure SQL uses Azure Active Directory (Azure AD) accounts to manage its resources, review user accounts, and access assignments regularly to ensure the accounts and their access are valid. You can use Azure AD and access reviews to review group memberships, access to enterprise applications, and role assignments.</t>
+          <t>Azure SQL Database Auditing tracks database events and writes them to an audit log in your Azure storage account. Auditing helps you understand database activity and gain insight into discrepancies and anomalies that could indicate business concerns or suspected security violations as well as helps you meet regulatory compliance. By default auditing policy includes all actions (queries, stored procedures and successful and failed logins) against the databases, which may result in high volume of audit logs. It's recommended for customers to configure auditing for different types of actions and action groups using PowerShell.</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
@@ -2563,7 +2563,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-3-review-and-reconcile-user-access-regularly</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2571,7 +2571,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>552416b1-e9d8-4acf-83ed-d167bb9b3744</t>
+          <t>4082e31d-35f4-4a49-8507-d3172cc930a6</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2582,27 +2582,27 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Auditing</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Use privileged access workstations for administrator access</t>
+          <t>Ensure that Azure SQL Database Auditing logs are backed up and secured in the selected repository type</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Ensure that only highly secure privileged access workstations or Azure Bastion are used, and/or that devices are verified secure before connecting using a product like Intune.</t>
+          <t xml:space="preserve">Azure SQL Database Auditing logs can be written to external storage accounts, Log Analytics workspace or Event Hub. Be sure to protect the target repository using backups and secured configuration. Use Azure SQL Database Managed Identity to access the storage and set an explicit retention period. Do not grant permissions to administrators to the audit log repository. Use a different target storage for --Enabling Auditing of Microsoft support operations--. </t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2613,7 +2613,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-6-use-privileged-access-workstations</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2621,7 +2621,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>a0af61fa-e714-4993-8f64-e1ae3bdb98a8</t>
+          <t>9b64bc50-b60f-4035-bf7a-28c4806dfb46</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2632,27 +2632,27 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Lockbox</t>
+          <t>Auditing</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Review and enable Customer Lockbox for Azure SQL Database access by Microsoft personnel</t>
+          <t>Ensure that Azure SQL Database Activity Log is collected and integrated with Auditing logs</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Most operations, support, and troubleshooting performed by Microsoft personnel and sub-processors do not require access to customer data. In those rare circumstances where such access is required, Customer Lockbox for Microsoft Azure provides an interface for customers to review and approve or reject customer data access requests.  In support scenarios where Microsoft needs to access customer data, Azure SQL Database supports Customer Lockbox to provide an interface for you to review and approve or reject customer data access requests.</t>
+          <t>The Azure Monitor activity log is a platform log in Azure that provides insight into subscription-level events. The activity log includes information like when a resource is modified. It is recommended to send this activity log to the same external storage repository as the Azure SQL Database Audit Log (storage account, Log Analytics workspace, Event Hub).</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>37b6eb0f-553d-488f-8a8a-cb9bf97388ff</t>
+          <t>fcd34708-87ac-4efc-aaf6-57a47f76644a</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2682,27 +2682,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Permissions</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Ensure that distinct applications will be assigned different credentials with minimal permissions to access Azure SQL Database</t>
+          <t>Ensure that Azure SQL Database Auditing logs are being presented in to your organizations SIEM/SOAR</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>Identities (both Users and SPNs) should be scoped to the least amount of access needed to perform the function.  A higher number of tightly scoped SPNs should be used, instead of having one SPN with multiple sets of unrelated permissions. For example, if there are three external web applications hosted on-prem that make queries to the Azure SQL Database, they should not all use the same SPN for these activities.  Instead, they should each have their own tightly scoped SPN.</t>
+          <t>Forward any logs from Azure SQL to your  Security Information and Event Management (SIEM) and Security Orchestration Automation and Response (SOAR). Ensure that you are monitoring different types of Azure assets for potential threats and anomalies. Focus on getting high-quality alerts to reduce false positives for analysts to sort through. Alerts can be sourced from log data, agents, or other data.</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2713,7 +2713,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#im-3-use-azure-ad-single-sign-on-sso-for-application-access</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2721,7 +2721,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>7b5b55e5-4750-4920-be97-eb726c256a5c</t>
+          <t>f96e127e-9572-453a-b325-ff89ae9f6b44</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2732,22 +2732,22 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>If cryptographic proof of data integrity  is a critical requirement, Ledger feature should be considered</t>
+          <t>Ensure that Azure SQL Database Activity Log data is presented in to your SIEM/SOAR</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>The Ledger feature provides tamper-evidence capabilities in your database. You can cryptographically attest to other parties, such as auditors or other business parties, that your data hasn't been tampered with. Ledger helps protect data from any attacker or high-privileged user, including database administrators (DBAs), system administrators, and cloud administrators.</t>
+          <t>Forward any logs from Azure SQL to your  Security Information and Event Management (SIEM) and Security Orchestration Automation and Response (SOAR), which can be used to set up custom threat detections. Ensure that you are monitoring different types of Azure assets for potential threats and anomalies. Focus on getting high-quality alerts to reduce false positives for analysts to sort through. Alerts can be sourced from log data, agents, or other data.</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
@@ -2763,7 +2763,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2771,7 +2771,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2563f498-e2d3-42ea-9e7b-5517881a06a2</t>
+          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2782,22 +2782,22 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Database Digest</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Confidential Ledger to store database digests only if advanced security features are required</t>
+          <t>Ensure that you have response plans for malicious or aberrant audit logging events</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>The hash of the latest block in the database ledger is called the database digest. It represents the state of all ledger tables in the database at the time when the block was generated. Generating a database digest is efficient, because it involves computing only the hashes of the blocks that were recently appended. Azure Confidential Ledger is one of the supported store, it can be used and supports automatic generation and storage of database digests. Azure Ledger provides advanced security features like Blockchain Ledger Proof and Confidential Hardware Enclaves. Use it only if advanced security features are required, otherwise revert to Azure storage.</t>
+          <t>Security Operation Center (SOC) team should create an incident response plan (playbooks or manual responses) to investigate and mitigate tampering, malicious activities, and other anomalous behaviors.</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
@@ -2813,7 +2813,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/technology-choices/multiparty-computing-service#confidential-ledger-and-azure-blob-storage</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2821,7 +2821,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>0e853380-50ba-4bce-b2fd-5c7391c85ecc</t>
+          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2832,27 +2832,27 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Database Digest</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>If Azure storage account is used to store database digests, ensure security is properly configured</t>
+          <t>Review Public vs. Private Access connectivity methods and select the appropriate one for the workload</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>The hash of the latest block in the database ledger is called the database digest. It represents the state of all ledger tables in the database at the time when the block was generated. Generating a database digest is efficient, because it involves computing only the hashes of the blocks that were recently appended. Azure Blob Storage with Immutable Storage feature can be used and supports automatic generation and storage of database digests. To prevent tampering of your digest files, configure and lock a retention policy for your container.</t>
+          <t>When you create a logical server from the Azure portal for Azure SQL Database, the result is a public endpoint that is visible and reachable over the public network (Public Access). You can then limit connectivity based on firewall rules and Service Endpoint. You can also configure private connectivity only limiting connections to internal networks using Private Endpoint (Private Access). Private Access using Private Endpoint should be the default unless a business case or performance/technical reason applies that cannot support it. Usage of Private Endpoints has performance implications that need to be considered and assessed.</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2863,7 +2863,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-digest-management</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2871,7 +2871,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>afefb2d3-95da-4ac9-acf5-33d18b32ef9a</t>
+          <t>2c6d356a-1784-475b-a42c-ec187dc8c925</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2882,27 +2882,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Integrity</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Schedule the Ledger verification process regularly to verify data integrity</t>
+          <t>Keep default Azure SQL Database Connection Policy if not differently required and justified</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Ledger provides a form of data integrity called forward integrity, which provides evidence of data tampering on data in your ledger tables. The database verification process takes as input one or more previously generated database digests. It then recomputes the hashes stored in the database ledger based on the current state of the ledger tables. If the computed hashes don't match the input digests, the verification fails. The failure indicates that the data has been tampered with. The verification process reports all inconsistencies that it detects.</t>
+          <t>IMPORTANT: Connections to private endpoint only support Proxy as the connection policy. When using private endpoints connections are proxied via the Azure SQL Database gateway to the database nodes. Clients will not have a direct connection.</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2913,7 +2913,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-database-verification</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-architecture</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2921,7 +2921,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f8d4ffda-8aac-4cc6-b72b-c81cb8625420</t>
+          <t>557b3ce5-bada-4296-8d52-a2d447bc1718</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2932,27 +2932,27 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Recovery</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Prepare a response plan to investigate and repair a database after a tampering event</t>
+          <t>Ensure Allow Azure Services and Resources to Access this Server setting is disabled in Azure SQL Database firewall</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>Depending on the type of tampering, there are cases where you can repair the ledger without losing data. In the article contained in the --More Info-- column, different scenarios and recovery techniques are described.</t>
+          <t>This option configures the firewall to allow all connections from Azure, including connections from the subscriptions of other customers. If you select this option, make sure that your login and user permissions limit access to authorized users only. If not strictly required, keep this setting to OFF.</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2963,14 +2963,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-how-to-recover-after-tampering</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>804fc554-6554-4842-91c1-713b32f99902</t>
+          <t>f48efacf-4405-4e8d-9dd0-16c5302ed082</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2981,22 +2981,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Auditing</t>
+          <t>Outbound Control</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Auditing is enabled at the server level</t>
+          <t>Block or restrict outbound REST API calls to external endpoints</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Azure SQL Database Auditing tracks database events and writes them to an audit log in your Azure storage account. Auditing helps you understand database activity and gain insight into discrepancies and anomalies that could indicate business concerns or suspected security violations as well as helps you meet regulatory compliance. By default auditing policy includes all actions (queries, stored procedures and successful and failed logins) against the databases, which may result in high volume of audit logs. It's recommended for customers to configure auditing for different types of actions and action groups using PowerShell.</t>
+          <t>Azure SQL Database has a new built-in feature that allows native integration with external REST endpoints. This means that integration of Azure SQL Database with Azure Functions, Azure Logic Apps, Cognitive Services, Event Hubs, Event Grid, Azure Containers, API Management and in general any REST or even GraphQL endpoint. If not properly restricted, code inside an Azure SQL Database database could leverage this mechanism to exfiltrate data. If not strictly required, it is recommended to block or restrict this feature using Outbound Firewall Rules.</t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3012,7 +3012,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/system-stored-procedures/sp-invoke-external-rest-endpoint-transact-sql</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3020,7 +3020,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>4082e31d-35f4-4a49-8507-d3172cc930a6</t>
+          <t>cb3274a7-e36d-46f6-8de5-46d30c8dde8e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3031,27 +3031,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Auditing</t>
+          <t>Outbound Control</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Auditing logs are backed up and secured in the selected repository type</t>
+          <t>If outbound network access is required, it is recommended to configure outbound networking restrictions using built-in Azure SQL Database control feature</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure SQL Database Auditing logs can be written to external storage accounts, Log Analytics workspace or Event Hub. Be sure to protect the target repository using backups and secured configuration. Use Azure SQL Database Managed Identity to access the storage and set an explicit retention period. Do not grant permissions to administrators to the audit log repository. Use a different target storage for --Enabling Auditing of Microsoft support operations--. </t>
+          <t>Outbound firewall rules limit network traffic from the Azure SQL Database logical server to a customer defined list of Azure Storage accounts and Azure SQL Database logical servers. Any attempt to access storage accounts or databases not in this list is denied.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3062,7 +3062,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/outbound-firewall-rule-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3070,7 +3070,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>9b64bc50-b60f-4035-bf7a-28c4806dfb46</t>
+          <t>a566dd3d-314e-4a94-9378-102c42d82b38</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3081,22 +3081,22 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>SIEM/SOAR</t>
+          <t>Private Access</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Auditing logs are being presented in to your organizations SIEM/SOAR</t>
+          <t>If Private Access connectivity is used, ensure that you are using the Private Endpoint, Azure Virtual Network, Azure Firewall, and Azure Network Security Group checklists</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t>Forward any logs from Azure SQL to your  Security Information and Event Management (SIEM) and Security Orchestration Automation and Response (SOAR). Ensure that you are monitoring different types of Azure assets for potential threats and anomalies. Focus on getting high-quality alerts to reduce false positives for analysts to sort through. Alerts can be sourced from log data, agents, or other data.</t>
+          <t>Private Endpoint is created inside a subnet in an Azure Virtual Network. Proper security configuration must be applied also to the containing network environment, including NSG/ASG, UDR, firewall, monitoring and auditing.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
@@ -3112,14 +3112,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>f96e127e-9572-453a-b325-ff89ae9f6b44</t>
+          <t>246cd832-f550-4af0-9c74-ca9baeeb8860</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3130,27 +3130,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Auditing</t>
+          <t>Private Access</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Activity Log is collected and integrated with Auditing logs</t>
+          <t>If Private Endpoint (Private Access) is used, consider disabling Public Access connectivity</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>The Azure Monitor activity log is a platform log in Azure that provides insight into subscription-level events. The activity log includes information like when a resource is modified. It is recommended to send this activity log to the same external storage repository as the Azure SQL Database Audit Log (storage account, Log Analytics workspace, Event Hub).</t>
+          <t>When adding a Private Endpoint connection, public routing to your logical server isn't blocked by default. In the --Firewall and virtual networks-- pane, the setting --Deny public network access-- is not selected by default. To disable public network access, ensure that you select --Deny public network access--.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3161,14 +3161,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>fcd34708-87ac-4efc-aaf6-57a47f76644a</t>
+          <t>3a0808ee-ea7a-47ab-bdce-920a6a2b3881</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3179,22 +3179,22 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>SIEM/SOAR</t>
+          <t>Private Access</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Activity Log data is presented in to your SIEM/SOAR</t>
+          <t>If Private Endpoint (Private Access) is used, apply NSG and eventually ASG to limit incoming source IP address ranges</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t>Forward any logs from Azure SQL to your  Security Information and Event Management (SIEM) and Security Orchestration Automation and Response (SOAR), which can be used to set up custom threat detections. Ensure that you are monitoring different types of Azure assets for potential threats and anomalies. Focus on getting high-quality alerts to reduce false positives for analysts to sort through. Alerts can be sourced from log data, agents, or other data.</t>
+          <t>Network Security Group (NSG) and Application Security Group (ASG) can be now applied to subnet containing Private Endpoints to restrict connections to Azure SQLDB based on internal source IP ranges.</t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
@@ -3210,7 +3210,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/en-us/azure/private-link/private-endpoint-overview#network-security-of-private-endpoints</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3218,7 +3218,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
+          <t>8600527e-e8c4-4424-90ef-1f0dca0224f2</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3234,17 +3234,17 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Public Access</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Review Public vs. Private Access connectivity methods and select the appropriate one for the workload</t>
+          <t>If Public Access connectivity is used, leverage Service Endpoint to restrict access from selected Azure Virtual Networks</t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>When you create a logical server from the Azure portal for Azure SQL Database, the result is a public endpoint that is visible and reachable over the public network (Public Access). You can then limit connectivity based on firewall rules and Service Endpoint. You can also configure private connectivity only limiting connections to internal networks using Private Endpoint (Private Access). Private Access using Private Endpoint should be the default unless a business case or performance/technical reason applies that cannot support it.</t>
+          <t>Azure Virtual Network Service Endpoint is preferred solution if you want to establish a direct connection to the Azure SQL Database backend nodes using Redirect policy. This will allow access in high performance mode.</t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
@@ -3260,7 +3260,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview?view=azuresql#ip-vs-virtual-network-firewall-rules</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3268,7 +3268,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2c6d356a-1784-475b-a42c-ec187dc8c925</t>
+          <t>55187443-6852-4fbd-99c6-ce303597ca7f</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3284,22 +3284,22 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Public Access</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Keep default Azure SQL Database Connection Policy if not differently required and justified</t>
+          <t>If Public Access connectivity is used, ensure that only specific known IPs are added to the firewall</t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>IMPORTANT: Connections to private endpoint only support Proxy as the connection policy. When using private endpoints connections are proxied via the Azure SQL Database gateway to the database nodes. Clients will not have a direct connection.</t>
+          <t>The Azure SQL Database firewall allows you to specify IP address ranges from which communications are accepted. This approach is fine for stable IP addresses that are outside the Azure private network.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3310,7 +3310,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-architecture</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3318,7 +3318,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>557b3ce5-bada-4296-8d52-a2d447bc1718</t>
+          <t>a73e32da-b3f4-4960-b5ec-2f42a557bf31</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3334,22 +3334,22 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Private Access</t>
+          <t>Public Access</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>If Private Access connectivity is used, ensure that you are using the Private Endpoint, Azure Virtual Network, Azure Firewall, and Azure Network Security Group checklists</t>
+          <t>If Public Access connectivity is used and controlled by Azure SQL Database firewall rules, use database-level over server-level IP rules</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>Private Endpoint is created inside a subnet in an Azure Virtual Network. Proper security configuration must be applied also to the containing network environment, including NSG/ASG, UDR, firewall, monitoring and auditing.</t>
+          <t>We recommend that you use database-level IP firewall rules whenever possible. This practice enhances security and makes your database more portable. Use server-level IP firewall rules for administrators. Also use them when you have many databases that have the same access requirements, and you don't want to configure each database individually.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3360,14 +3360,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/firewall-configure</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>246cd832-f550-4af0-9c74-ca9baeeb8860</t>
+          <t>e0f31ac9-35c8-4bfd-9865-edb60ffc6768</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3378,27 +3378,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Privileged Access</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Private Access</t>
+          <t>Lockbox</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>If Private Endpoint (Private Access) is used, consider disabling Public Access connectivity</t>
+          <t>Review and enable Customer Lockbox for Azure SQL Database access by Microsoft personnel</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>When adding a Private Endpoint connection, public routing to your logical server isn't blocked by default. In the --Firewall and virtual networks-- pane, the setting --Deny public network access-- is not selected by default. To disable public network access, ensure that you select --Deny public network access--.</t>
+          <t>Most operations, support, and troubleshooting performed by Microsoft personnel and sub-processors do not require access to customer data. In those rare circumstances where such access is required, Customer Lockbox for Microsoft Azure provides an interface for customers to review and approve or reject customer data access requests.  In support scenarios where Microsoft needs to access customer data, Azure SQL Database supports Customer Lockbox to provide an interface for you to review and approve or reject customer data access requests.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3409,7 +3409,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3417,7 +3417,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>3a0808ee-ea7a-47ab-bdce-920a6a2b3881</t>
+          <t>37b6eb0f-553d-488f-8a8a-cb9bf97388ff</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3428,22 +3428,22 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Privileged Access</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Private Access</t>
+          <t>Permissions</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>If Private Endpoint (Private Access) is used, apply NSG and eventually ASG to limit incoming source IP address ranges</t>
+          <t>Ensure that users are assigned the minimum level of access necessarily to complete their job functions</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t>Network Security Group (NSG) and Application Security Group (ASG) can be now applied to subnet containing Private Endpoints to restrict connections to Azure SQLDB based on internal source IP ranges.</t>
+          <t>The principle of least privilege states that users shouldn't have more privileges than needed to complete their tasks. High-privileged database and server users can perform many configuration and maintenance activities on the database and can also drop databases in Azure SQL instance. Tracking database owners and privileged accounts is important to avoid having excessive permission.</t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
@@ -3459,14 +3459,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-endpoint-overview#network-security-of-private-endpoints</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#implement-principle-of-least-privilege</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>8600527e-e8c4-4424-90ef-1f0dca0224f2</t>
+          <t>5fe5281f-f0f9-4842-a682-8baf18bd8316</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3477,27 +3477,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Privileged Access</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Public Access</t>
+          <t>Permissions</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>If Public Access connectivity is used, leverage Service Endpoint to restrict access from selected Azure Virtual Networks</t>
+          <t>Ensure that distinct applications will be assigned different credentials with minimal permissions to access Azure SQL Database</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Azure Virtual Network Service Endpoint is preferred solution if you want to establish a direct connection to the Azure SQL Database backend nodes using Redirect policy. This will allow access in high performance mode.</t>
+          <t>Identities (both Users and SPNs) should be scoped to the least amount of access needed to perform the function.  A higher number of tightly scoped SPNs should be used, instead of having one SPN with multiple sets of unrelated permissions. For example, if there are three external web applications hosted on-prem that make queries to the Azure SQL Database, they should not all use the same SPN for these activities.  Instead, they should each have their own tightly scoped SPN.</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3508,14 +3508,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview?view=azuresql#ip-vs-virtual-network-firewall-rules</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#im-3-use-azure-ad-single-sign-on-sso-for-application-access</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>55187443-6852-4fbd-99c6-ce303597ca7f</t>
+          <t>7b5b55e5-4750-4920-be97-eb726c256a5c</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3526,24 +3526,20 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Public Access</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>If Public Access connectivity is used, ensure that only specific known IPs are added to the firewall</t>
-        </is>
-      </c>
-      <c r="D57" s="22" t="inlineStr">
-        <is>
-          <t>The Azure SQL Database firewall allows you to specify IP address ranges from which communications are accepted. This approach is fine for stable IP addresses that are outside the Azure private network.</t>
-        </is>
-      </c>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+        </is>
+      </c>
+      <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3557,14 +3553,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>a73e32da-b3f4-4960-b5ec-2f42a557bf31</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3575,27 +3571,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Public Access</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>If Public Access connectivity is used and controlled by Azure SQL Database firewall rules, use database-level over server-level IP rules whenever possible</t>
-        </is>
-      </c>
-      <c r="D58" s="22" t="inlineStr">
-        <is>
-          <t>We recommend that you use database-level IP firewall rules whenever possible. This practice enhances security and makes your database more portable. Use server-level IP firewall rules for administrators. Also use them when you have many databases that have the same access requirements, and you don't want to configure each database individually.</t>
-        </is>
-      </c>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+        </is>
+      </c>
+      <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3606,14 +3598,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/firewall-configure</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e0f31ac9-35c8-4bfd-9865-edb60ffc6768</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3624,24 +3616,20 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Ensure Allow Azure Services and Resources to Access this Server setting is disabled in Azure SQL Database firewall</t>
-        </is>
-      </c>
-      <c r="D59" s="22" t="inlineStr">
-        <is>
-          <t>This option configures the firewall to allow all connections from Azure, including connections from the subscriptions of other customers. If you select this option, make sure that your login and user permissions limit access to authorized users only. If not strictly required, keep this setting to OFF.</t>
-        </is>
-      </c>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+        </is>
+      </c>
+      <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3655,14 +3643,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>f48efacf-4405-4e8d-9dd0-16c5302ed082</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3673,24 +3661,20 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Outbound Control</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Deny all permissions for outbound REST API calls to external endpoints</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="inlineStr">
-        <is>
-          <t>Azure SQL Database has a new built-in feature that allows native integration with external REST endpoints. This means that integration of Azure SQL Database with Azure Functions, Azure Logic Apps, Cognitive Services, Event Hubs, Event Grid, Azure Containers, API Management and in general any REST or even GraphQL endpoint. If not properly restricted, code inside an Azure SQL Database database could leverage this mechanism to exfiltrate data. If not strictly required, it is recommended to deny explicitly the permissions necessary to use this feature.</t>
-        </is>
-      </c>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3704,14 +3688,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/system-stored-procedures/sp-invoke-external-rest-endpoint-transact-sql</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>cb3274a7-e36d-46f6-8de5-46d30c8dde8e</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3722,24 +3711,20 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Outbound Control</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>If outbound network access is required, it is recommended to configure outbound networking restrictions using built-in Azure SQL Database control feature</t>
-        </is>
-      </c>
-      <c r="D61" s="22" t="inlineStr">
-        <is>
-          <t>Outbound firewall rules limit network traffic from the Azure SQL Database logical server to a customer defined list of Azure Storage accounts and Azure SQL Database logical servers. Any attempt to access storage accounts or databases not in this list is denied.</t>
-        </is>
-      </c>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+        </is>
+      </c>
+      <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3753,14 +3738,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/outbound-firewall-rule-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>a566dd3d-314e-4a94-9378-102c42d82b38</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -11824,7 +11809,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F62" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/sqldb_security_checklist.en.xlsx
+++ b/spreadsheet/sqldb_security_checklist.en.xlsx
@@ -1100,17 +1100,17 @@
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQLDB is having regular automated backups</t>
+          <t>Protect your backup data with encryption and store keys safely in Azure Key Vault</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>Azure SQL Database uses SQL Server technology to create full backups every week, differential backup every 12-24 hours, and transaction log backup every 5 to 10 minutes. By default, SQL Database stores data in geo-redundant storage blobs that are replicated to a paired region.</t>
+          <t>Ensure that your backups are protected against attacks. This should include encryption of the backups to protect against loss of confidentiality. For regular Azure service backup, backup data is automatically encrypted using Azure platform-managed keys. You can also choose to encrypt the backup using a customer-managed key. In this case, ensure this customer-managed key in the key vault is also in the backup scope.</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-1-ensure-regular-automated-backups</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-2-encrypt-backup-data</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>e2518261-b3bc-4bd1-b331-637fb2df833f</t>
+          <t>676f6951-0368-49e9-808d-c33a692c9a64</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Enable geo-redundant backup storage to protect against single region failure and data loss</t>
+          <t>Configure Azure SQL Database automated backups</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>By default, SQL Database stores data in geo-redundant storage blobs that are replicated to a paired region. For SQL Database, the backup storage redundancy can be configured at the time of database creation or can be updated for an existing database; the changes made to an existing database apply to future backups only.</t>
+          <t>Azure SQL Database uses SQL Server technology to create full backups every week, differential backup every 12-24 hours, and transaction log backup every 5 to 10 minutes. By default, SQL Database stores data in geo-redundant storage blobs that are replicated to a paired region.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/automated-backups-overview?tabs=single-database&amp;view=azuresql#backup-storage-redundancy</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-1-ensure-regular-automated-backups</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>f8c7cda2-3ed7-43fb-a100-85dcd12a0ee4</t>
+          <t>e2518261-b3bc-4bd1-b331-637fb2df833f</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,22 +1200,22 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Protect your backup data with encryption and store keys safely in Azure Key Vault</t>
+          <t>Enable geo-redundant backup storage to protect against single region failure and data loss</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Ensure that your backups are protected against attacks. This should include encryption of the backups to protect against loss of confidentiality. For regular Azure service backup, backup data is automatically encrypted using Azure platform-managed keys. You can also choose to encrypt the backup using a customer-managed key. In this case, ensure this customer-managed key in the key vault is also in the backup scope.</t>
+          <t>By default, SQL Database stores data in geo-redundant storage blobs that are replicated to a paired region. For SQL Database, the backup storage redundancy can be configured at the time of database creation or can be updated for an existing database; the changes made to an existing database apply to future backups only.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-2-encrypt-backup-data</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/automated-backups-overview?tabs=single-database&amp;view=azuresql#backup-storage-redundancy</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>676f6951-0368-49e9-808d-c33a692c9a64</t>
+          <t>f8c7cda2-3ed7-43fb-a100-85dcd12a0ee4</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,22 +1245,22 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Code</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Source Control and Code Review</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Periodically validate all backups including customer-managed keys</t>
+          <t>Use Source Control systems to store, maintain and review application code deployed inside Azure SQLDB Database</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>It is recommended that validation of application readiness for recovery workflow is performed periodically. Verifying the application behavior and implications of data loss and/or the disruption that failover involves is a good engineering practice. It is also a requirement by most industry standards as part of business continuity certification. Performing a disaster recovery drill consists of: (1) Simulating data tier outage (2) Recovering (3) Validate application integrity post recovery.</t>
+          <t>Malicious code can potentially circumvent security controls. Before deploying custom code to production, it is essential to review what's being deployed. Use a database tool like Azure Data Studio that supports source control. Implement tools and logic for code analysis, vulnerability and credential scanning.</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-3-validate-all-backups-including-customer-managed-keys</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>a604bd0b-e62d-4037-8318-b62a476ea771</t>
+          <t>7ca9f006-d2a9-4652-951c-de8e4ac5e76e</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,22 +1295,22 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Data Discovery and Classification</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault</t>
+          <t>Data Discovery and Classification</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Mitigate risk of Azure Key Vault (AKV) lost keys used in Azure SQL Database</t>
+          <t>Plan and configure Data Discovery &amp; Classification to protect the sensitive data</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have measures in place to prevent and recover from the loss of keys. Enable soft delete and purge protection in Azure Key Vault to protect keys against accidental or malicious deletion.</t>
+          <t>In case of classification requirements Purview is the preferred option. Only use SQL Data Discovery &amp; Classification in case Purview is not an option. Discover columns that potentially contain sensitive data. What is considered sensitive data heavily depends on the customer, compliance regulation, etc., and needs to be evaluated by the users in charge of that data. Classify the columns to use advanced sensitivity-based auditing and protection scenarios. Review results of automated discovery and finalize the classification if necessary.</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
@@ -1326,17 +1326,13 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/key-vault/general/key-vault-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview?view=azuresql#faq---advanced-classification-capabilities</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
-      <c r="L12" s="26" t="inlineStr">
-        <is>
-          <t>c7bb4dc5-4cd9-4215-a46d-9ddd2566f845</t>
-        </is>
-      </c>
+      <c r="L12" s="26" t="inlineStr"/>
       <c r="M12" s="26" t="n"/>
       <c r="N12" s="26" t="n"/>
       <c r="O12" s="26" t="n"/>
@@ -1345,22 +1341,22 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery and Classification</t>
+          <t>Data Masking</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery and Classification</t>
+          <t>Data Masking</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Use Azure SQL Database Data Discovery and Classification to discover, classify, label, and protect the sensitive</t>
+          <t>Use Data Masking to prevent unauthorized non-admin users data access if no encryption is possible</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Discover columns that potentially contain sensitive data. What is considered sensitive data heavily depends on the customer, compliance regulation, etc., and needs to be evaluated by the users in charge of that data. Classify the columns to use advanced sensitivity-based auditing and protection scenarios. Review results of automated discovery and finalize the classification if necessary.</t>
+          <t>Usage of this feature is recommended only if column encryption is not an option and there is a specific requirement to preserve data types and formats. Dynamic data masking limits sensitive data exposure by masking it to non-privileged users. Dynamic data masking helps prevent unauthorized access to sensitive data by enabling customers to designate how much of the sensitive data to reveal with minimal impact on the application layer.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
@@ -1376,13 +1372,17 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#identify-and-tag-sensitive-data</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/dynamic-data-masking-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
-      <c r="L13" s="26" t="inlineStr"/>
+      <c r="L13" s="26" t="inlineStr">
+        <is>
+          <t>9391fd50-135e-453e-90a7-c1a23f88cc13</t>
+        </is>
+      </c>
       <c r="M13" s="26" t="n"/>
       <c r="N13" s="26" t="n"/>
       <c r="O13" s="26" t="n"/>
@@ -1391,27 +1391,27 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery and Classification</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Purview</t>
+          <t>Advanced Threat Protection</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>For complex and rich database schemas, or to manage at large scale, Microsoft Purview is highly recommended for Data Discovery and Classification</t>
+          <t>Review and complete Advanced Threat Protection (ATP) configuration</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t>We continue to support SQL Data Discovery &amp; Classification and encourage you to adopt Microsoft Purview which has richer capabilities to drive advanced classification capabilities and data governance.</t>
+          <t>SQL Advanced Threat Detection (ATP) provides a layer of security that detects potential vulnerabilities and anomalous activity in databases such as SQL injection attacks and unusual behavior patterns. When a potential threat is detected Threat Detection sends an actionable real-time alert by email and in Microsoft Defender for Cloud, which includes clear investigation and remediation steps for the specific threat.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview?view=azuresql#faq---advanced-classification-capabilities</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1430,7 +1430,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>e2e49f0c-ebab-4971-bc88-b9713080ce8d</t>
+          <t>4e52d73f-5d37-428f-b3a2-e6997e835979</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1441,27 +1441,27 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery and Classification</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery and Classification</t>
+          <t>Defender for Azure SQL</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Regularly monitor the classification dashboard for an accurate assessment of the database's classification state</t>
+          <t>Enable Microsoft Defender for Azure SQL</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>Data Discovery &amp; Classification is built into Azure SQL Database, Azure SQL Managed Instance, and Azure Synapse Analytics. It provides basic capabilities for discovering, classifying, labeling, and reporting the sensitive data in your databases. You can view the database-classification state in a detailed dashboard in the Azure portal. Also, you can download a report in Excel format to use for compliance and auditing purposes and other needs.</t>
+          <t>Enable Microsoft Defender for Azure SQL at the subscription level to automatically onboard and protect all existing and future servers and databases. When you enable on the subscription level, all databases in Azure SQL Database and Azure SQL Managed Instance are protected. You can then disable them individually if you choose. If you want to manually manage which databases are protected, disable at the subscription level and enable each database that you want protected.</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1472,7 +1472,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/en-us/azure/azure-sql/database/azure-defender-for-sql?view=azuresql#enable-microsoft-defender-for-sql </t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1480,7 +1480,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>0b30c724-9d42-4294-9db5-b60b121384bc</t>
+          <t>dff87489-9edb-4cef-bdda-86e8212b2aa1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1491,27 +1491,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Data Masking</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Data Masking</t>
+          <t>Defender for Azure SQL</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Use Data Masking to prevent unauthorized non-admin users data access if no encryption is possible</t>
+          <t>Prepare a security response plan to promptly react to Microsoft Defender for Azure SQL alerts</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Usage of this feature is recommended only if no encryption strategy is feasible, and there is a specific requirement to preserve data types and formats. Dynamic data masking limits sensitive data exposure by masking it to non-privileged users. Dynamic data masking helps prevent unauthorized access to sensitive data by enabling customers to designate how much of the sensitive data to reveal with minimal impact on the application layer.</t>
+          <t>Microsoft Defender for Azure SQL ATP detects anomalous activities indicating unusual and potentially harmful attempts to access or exploit databases. Alerts can be configured and generated and will be reported in the Defender for console.</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1522,7 +1522,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/dynamic-data-masking-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1530,7 +1530,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>9391fd50-135e-453e-90a7-c1a23f88cc13</t>
+          <t>ca342fdf-d25a-4427-b105-fcd50ff8a0ea</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1546,17 +1546,17 @@
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Defender for Azure SQL</t>
+          <t>Vulnerability Assessment</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Enable Microsoft Defender for Azure SQL at the subscription level</t>
+          <t>Configure Vulnerability Assessment (VA) findings and review recommendations</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Enable Microsoft Defender for Azure SQL at the subscription level to automatically onboard and protect all existing and future servers and databases. When you enable on the subscription level, all databases in Azure SQL Database and Azure SQL Managed Instance are protected. You can then disable them individually if you choose. If you want to manually manage which databases are protected, disable at the subscription level and enable each database that you want protected.</t>
+          <t>Azure SQLDB vulnerability assessment is a service that provides visibility into your security state. Vulnerability assessment includes actionable steps to resolve security issues and enhance your database security. It can help you to monitor a dynamic database environment where changes are difficult to track and improve your SQL security posture.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1572,7 +1572,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/en-us/azure/azure-sql/database/azure-defender-for-sql?view=azuresql#enable-microsoft-defender-for-sql </t>
+          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-overview</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1580,7 +1580,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>dff87489-9edb-4cef-bdda-86e8212b2aa1</t>
+          <t>a6101ae7-534c-45ab-86fd-b34c55ea21ca</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Review and complete Vulnerability Assessment (VA) configuration</t>
+          <t>Regularly review of Vulnerability Assessment (VA) findings and recommendations and prepare a plan to fix</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Azure SQLDB vulnerability assessment is a service that provides visibility into your security state. Vulnerability assessment includes actionable steps to resolve security issues and enhance your database security. It can help you to monitor a dynamic database environment where changes are difficult to track and improve your SQL security posture.</t>
+          <t>Microsoft Defender for Cloud provides vulnerability assessment for your Azure SQL Databases. Vulnerability assessment scans your databases for software vulnerabilities and provides a list of findings. You can use the findings to remediate software vulnerabilities and disable findings.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1622,7 +1622,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-find?view=azuresql</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1630,7 +1630,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>a6101ae7-534c-45ab-86fd-b34c55ea21ca</t>
+          <t>c8c5f112-1e50-4f77-9264-8195b4cd61ac</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1641,27 +1641,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Advanced Threat Protection</t>
+          <t>Always Encrypted</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Review and complete Advanced Threat Protection (ATP) configuration</t>
+          <t>If protecting sensitive PII data from admin users is a key requirement, but Column Encryption limitations cannot be tolerated, consider the adoption of Always Encrypted with Secure Enclaves</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>SQL Advanced Threat Detection (ATP) provides a layer of security that detects potential vulnerabilities and anomalous activity in databases such as SQL injection attacks and unusual behavior patterns. When a potential threat is detected Threat Detection sends an actionable real-time alert by email and in Microsoft Defender for Cloud, which includes clear investigation and remediation steps for the specific threat.</t>
+          <t>Always Encrypted with Secure Enclaves expands confidential computing capabilities of Always Encrypted by enabling in-place encryption and richer confidential queries. Always Encrypted with Secure Enclaves addresses these limitations by allowing some computations on plaintext data inside a secure enclave on the server side. Usage of this feature is recommended for the cases where you need to limit administrator access and need your queries to support more than equality matching of encrypted columns.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1672,7 +1672,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/encryption/always-encrypted-enclaves</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1680,7 +1680,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>4e52d73f-5d37-428f-b3a2-e6997e835979</t>
+          <t>65d7e54a-10a6-4094-b673-9ff3809c9277</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1691,27 +1691,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Defender for Azure SQL</t>
+          <t>Column Encryption</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Prepare a security response plan to promptly react to Microsoft Defender for Azure SQL alerts</t>
+          <t>To protect sensitive PII data from non-admin users in specific table columns, consider using Column Encryption</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Azure SQL ATP detects anomalous activities indicating unusual and potentially harmful attempts to access or exploit databases. Alerts can be configured and generated and will be reported in the Defender for console.</t>
+          <t>With Azure SQL Database, you can apply symmetric encryption to a column of data by using Transact-SQL. This approach is called column encryption, because you can use it to encrypt specific columns with different encryption keys. Doing so gives you more granular encryption capability than TDE, which encrypts data in pages. Using Always Encrypted to ensure sensitive data isn't exposed in plaintext in Azure SQL Database or SQL Managed Instance, even in memory/in use. Always Encrypted protects the data from Database Administrators (DBAs) and cloud admins (or bad actors who can impersonate high-privileged but unauthorized users) and gives you more control over who can access your data.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1722,7 +1722,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#control-access-of-application-users-to-sensitive-data-through-encryption</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ca342fdf-d25a-4427-b105-fcd50ff8a0ea</t>
+          <t>c03ce136-e3d5-4e17-bf25-ed955ee480d3</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1741,22 +1741,22 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Vulnerability Assessment</t>
+          <t>Transparent Data Encryption</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Regularly review of Vulnerability Assessment (VA) findings and recommendations and prepare a plan to fix</t>
+          <t>Ensure Transparent Data Encryption (TDE) is kept enabled</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud provides vulnerability assessment for your Azure SQL Databases. Vulnerability assessment scans your databases for software vulnerabilities and provides a list of findings. You can use the findings to remediate software vulnerabilities and disable findings.</t>
+          <t>Enabled by default, Transparent data encryption (TDE) helps to protect the database files against information disclosure by performing real-time encryption and decryption of the database, associated backups, and transaction log files 'at rest', without requiring changes to the application.</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
@@ -1772,7 +1772,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-find?view=azuresql</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1780,7 +1780,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>c8c5f112-1e50-4f77-9264-8195b4cd61ac</t>
+          <t>c614ac47-bebf-4061-b0a1-43e0c6b5e00d</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1791,22 +1791,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Source Control and Code Review</t>
+          <t>Transparent Data Encryption</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Use Source Control systems to store, maintain and review application code deployed inside Azure SQLDB Database</t>
+          <t>Use customer-managed keys (CMK) in Azure Key Vault (AKV) if you need increased transparency and granular control over the TDE protection</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>Malicious code can potentially circumvent security controls. Before deploying custom code to production, it is essential to review what's being deployed. Use a database tool like Azure Data Studio that supports source control. Implement tools and logic for code analysis, vulnerability and credential scanning.</t>
+          <t>If separation of duties in the management of keys and data within the organization is required, leverage Customer Managed Keys (CMK) for Transparent Data Encryption (TDE) for your Azure SQLDB and use Azure Key Vault to store (refer to its checklist). Leverage this feature when you have strict security requirements which cannot be met by the managed service keys.</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7ca9f006-d2a9-4652-951c-de8e4ac5e76e</t>
+          <t>2edb4165-4f54-47cc-a891-5c82c2f21e25</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1846,17 +1846,17 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Transparent Data Encryption</t>
+          <t>Transport Layer Security</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Ensure Transparent Data Encryption (TDE) is kept enabled</t>
+          <t>Enforce minimum TLS version to the latest available</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Enabled by default, Transparent data encryption (TDE) helps to protect the database files against information disclosure by performing real-time encryption and decryption of the database, associated backups, and transaction log files 'at rest', without requiring changes to the application.</t>
+          <t>The minimal Transport Layer Security (TLS) version setting allows customers to choose which version of TLS their SQL database uses. It's possible to change the minimum TLS version by using the Azure portal, Azure PowerShell, and the Azure CLI.</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
@@ -1872,7 +1872,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-settings?source=recommendations&amp;view=azuresql&amp;tabs=azure-portal#minimal-tls-version</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1880,7 +1880,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>c614ac47-bebf-4061-b0a1-43e0c6b5e00d</t>
+          <t>7754b605-57fd-4bcb-8213-52c39d8e8225</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1891,22 +1891,22 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Transparent Data Encryption</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Use customer-managed keys (CMK) in Azure Key Vault (AKV) if you need increased transparency and granular control over the TDE protection</t>
+          <t>Leverage Azure AD authentication for connections to Azure SQL Databases</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>If separation of duties in the management of keys and data within the organization is required, leverage Customer Managed Keys (CMK) for Transparent Data Encryption (TDE) for your Azure SQLDB and use Azure Key Vault to store (refer to its checklist). Leverage this feature when you have strict security requirements which cannot be met by the managed service keys.</t>
+          <t>Use Azure Active Directory (Azure AD) authentication for centralized identity management. Use SQL Authentication only if really necessary and document as exceptions.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-overview</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1930,7 +1930,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2edb4165-4f54-47cc-a891-5c82c2f21e25</t>
+          <t>c9b8b6bf-2c6b-453d-b400-de9a43a549d7</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1941,27 +1941,27 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Cell-Level Encryption</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>To protect sensitive PII data from non-admin users in specific table columns, consider using Cell-Level Encryption (CLE)</t>
+          <t>Create a separate Azure AD group with two admin accounts for each Azure SQL Database logical server</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>With Azure SQL Database, you can apply symmetric encryption to a column of data by using Transact-SQL. This approach is called cell-level encryption or column-level encryption (CLE), because you can use it to encrypt specific columns or even specific cells of data with different encryption keys. Doing so gives you more granular encryption capability than TDE, which encrypts data in pages.</t>
+          <t>Using Azure AD groups simplifies permission management and both the group owner, and the resource owner can add/remove members to/from the group. Create a separate group for Azure AD administrators for each  logical server. Monitor Azure AD group membership changes using Azure AD audit activity reports.</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#control-access-of-application-users-to-sensitive-data-through-encryption</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#central-management-for-identities</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1980,7 +1980,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>c03ce136-e3d5-4e17-bf25-ed955ee480d3</t>
+          <t>29820254-1d14-4778-ae90-ff4aeba504a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1991,27 +1991,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Always Encrypted</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>To protect sensitive PII data from admin users, consider using Always Encrypted</t>
+          <t>Minimize the use of password-based authentication for applications</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Use Always Encrypted to ensure sensitive data isn't exposed in plaintext in Azure SQL Database or SQL Managed Instance, even in memory/in use. Always Encrypted protects the data from Database Administrators (DBAs) and cloud admins (or bad actors who can impersonate high-privileged but unauthorized users) and gives you more control over who can access your data.</t>
+          <t>Ensure that distinct system and user assigned managed identities, that are dedicated to the function, with least permissions assigned, are used for communication from Azure services and applications to the Azure SQLDB databases.</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#protect-sensitive-data-in-use-from-high-privileged-unauthorized-users</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#minimize-the-use-of-password-based-authentication-for-applications</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2030,7 +2030,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2f928aa-ccd3-4167-8c5d-35848428564b</t>
+          <t>df3a09ee-03bb-4198-8637-d141acf5f289</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2041,22 +2041,22 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Always Encrypted</t>
+          <t>Managed Identities</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>If protecting sensitive PII data from admin users is a key requirement, but Always Encrypted limitations cannot be tolerated, consider the adoption of Always Encrypted with Secure Enclaves</t>
+          <t>Assign Azure SQL Database a managed identity for outbound resource access</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Always Encrypted with Secure Enclaves expands confidential computing capabilities of Always Encrypted by enabling in-place encryption and richer confidential queries. Always Encrypted with Secure Enclaves addresses these limitations by allowing some computations on plaintext data inside a secure enclave on the server side. </t>
+          <t>System or User assigned managed identities enable Azure SQLDB to authenticate to other cloud services (e.g. Azure Key Vault) without storing credentials in code. Once enabled, all necessary permissions can be granted via Azure role-based-access-control to the specific Azure SQLDB instance. Do not share user assigned managed identities across multiple services if not strictly required.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
@@ -2072,14 +2072,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/encryption/always-encrypted-enclaves</t>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>65d7e54a-10a6-4094-b673-9ff3809c9277</t>
+          <t>69891194-5074-4e30-8f69-4efc3c580900</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2090,27 +2090,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Transport Layer Security</t>
+          <t>Passwords</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Enforce minimum TLS version to the latest available</t>
+          <t>Minimize the use of password-based authentication for users</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>The minimal Transport Layer Security (TLS) version setting allows customers to choose which version of TLS their SQL database uses. It's possible to change the minimum TLS version by using the Azure portal, Azure PowerShell, and the Azure CLI.</t>
+          <t>Use an Azure AD integrated authentication that eliminates the use of passwords. Password-based authentication methods are a weaker form of authentication. Credentials can be compromised or mistakenly given away. Use single sign-on authentication using Windows credentials. Federate the on-premises AD domain with Azure AD and use integrated Windows authentication (for domain-joined machines with Azure AD).</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2121,16 +2121,12 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-settings?source=recommendations&amp;view=azuresql&amp;tabs=azure-portal#minimal-tls-version</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-configure?view=azuresql&amp;tabs=azure-powershell#active-directory-integrated-authentication</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
-      <c r="L28" s="26" t="inlineStr">
-        <is>
-          <t>7754b605-57fd-4bcb-8213-52c39d8e8225</t>
-        </is>
-      </c>
+      <c r="L28" s="26" t="inlineStr"/>
       <c r="M28" s="26" t="n"/>
       <c r="N28" s="26" t="n"/>
       <c r="O28" s="26" t="n"/>
@@ -2139,22 +2135,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Database Digest</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure AD authentication for connections to Azure SQL Databases</t>
+          <t>Use Azure Confidential Ledger to store database digests only if advanced security features are required</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Active Directory (Azure AD) authentication for centralized identity management. Use SQL Authentication only if really necessary and document as exceptions.</t>
+          <t>The hash of the latest block in the database ledger is called the database digest. It represents the state of all ledger tables in the database at the time when the block was generated. Generating a database digest is efficient, because it involves computing only the hashes of the blocks that were recently appended. Azure Confidential Ledger is one of the supported store, it can be used and supports automatic generation and storage of database digests. Azure Ledger provides advanced security features like Blockchain Ledger Proof and Confidential Hardware Enclaves. Use it only if advanced security features are required, otherwise revert to Azure storage.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2170,14 +2166,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/technology-choices/multiparty-computing-service#confidential-ledger-and-azure-blob-storage</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c9b8b6bf-2c6b-453d-b400-de9a43a549d7</t>
+          <t>0e853380-50ba-4bce-b2fd-5c7391c85ecc</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2188,22 +2184,22 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Database Digest</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Create a separate Azure AD group with two admin accounts for each SQLDB instance</t>
+          <t>If Azure storage account is used to store database digests, ensure security is properly configured</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Using Azure AD groups simplifies permission management and both the group owner, and the resource owner can add/remove members to/from the group. Create a separate group for Azure AD administrators for each server or managed instance. Monitor Azure AD group membership changes using Azure AD audit activity reports.</t>
+          <t>The hash of the latest block in the database ledger is called the database digest. It represents the state of all ledger tables in the database at the time when the block was generated. Generating a database digest is efficient, because it involves computing only the hashes of the blocks that were recently appended. Azure Blob Storage with Immutable Storage feature can be used and supports automatic generation and storage of database digests. To prevent tampering of your digest files, configure and lock a retention policy for your container.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
@@ -2219,14 +2215,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#central-management-for-identities</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-digest-management</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>29820254-1d14-4778-ae90-ff4aeba504a3</t>
+          <t>afefb2d3-95da-4ac9-acf5-33d18b32ef9a</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2237,22 +2233,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Integrity</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enable Multi-Factor Authentication (MFA) in Azure AD using Conditional Access (CA) for interactive authentication</t>
+          <t>Schedule the Ledger verification process regularly to verify data integrity</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Azure AD Multi-Factor Authentication (MFA) helps provides additional security by requiring more than one form of authentication. Use Azure AD Interactive authentication mode for Azure SQL Database and Azure SQL Managed Instance where a password is requested interactively, followed by Multi-Factor Authentication.</t>
+          <t>Ledger provides a form of data integrity called forward integrity, which provides evidence of data tampering on data in your ledger tables. The database verification process takes as input one or more previously generated database digests. It then recomputes the hashes stored in the database ledger based on the current state of the ledger tables. If the computed hashes don't match the input digests, the verification fails. The failure indicates that the data has been tampered with. The verification process reports all inconsistencies that it detects.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2268,14 +2264,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-mfa-ssms-overview</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-database-verification</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>4bcb1d1c-7a32-455a-8456-ef22a0372240</t>
+          <t>f8d4ffda-8aac-4cc6-b72b-c81cb8625420</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2286,22 +2282,22 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Passwords</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Minimize the use of password-based authentication for users</t>
+          <t>If cryptographic proof of data integrity  is a critical requirement, Ledger feature should be considered</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure AD integrated authentication that eliminates the use of passwords. Password-based authentication methods are a weaker form of authentication. Credentials can be compromised or mistakenly given away. Use single sign-on authentication using Windows credentials. Federate the on-premises AD domain with Azure AD and use integrated Windows authentication (for domain-joined machines with Azure AD).</t>
+          <t>The Ledger feature provides tamper-evidence capabilities in your database. You can cryptographically attest to other parties, such as auditors or other business parties, that your data hasn't been tampered with. Ledger helps protect data from any attacker or high-privileged user, including database administrators (DBAs), system administrators, and cloud administrators.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
@@ -2317,13 +2313,17 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-configure?view=azuresql&amp;tabs=azure-powershell#active-directory-integrated-authentication</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
-      <c r="L32" s="26" t="inlineStr"/>
+      <c r="L32" s="26" t="inlineStr">
+        <is>
+          <t>2563f498-e2d3-42ea-9e7b-5517881a06a2</t>
+        </is>
+      </c>
       <c r="M32" s="26" t="n"/>
       <c r="N32" s="26" t="n"/>
       <c r="O32" s="26" t="n"/>
@@ -2332,22 +2332,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Ledger</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Recovery</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Minimize the use of password-based authentication for applications</t>
+          <t>Prepare a response plan to investigate and repair a database after a tampering event</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>Ensure that distinct system and user assigned managed identities, that are dedicated to the function, with least permissions assigned, are used for communication from Azure services and applications to the Azure SQLDB databases.</t>
+          <t>Depending on the type of tampering, there are cases where you can repair the ledger without losing data. In the article contained in the --More Info-- column, different scenarios and recovery techniques are described.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#minimize-the-use-of-password-based-authentication-for-applications</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-how-to-recover-after-tampering</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>df3a09ee-03bb-4198-8637-d141acf5f289</t>
+          <t>804fc554-6554-4842-91c1-713b32f99902</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2382,27 +2382,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Managed Identities</t>
+          <t>Auditing</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Assign Azure SQL Database a managed identity for outbound resource access</t>
+          <t>Ensure that Azure SQL Database Auditing is enabled at the server level</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>System or User assigned managed identities enable Azure SQLDB to authenticate to other cloud services (e.g. Azure Key Vault) without storing credentials in code. Once enabled, all necessary permissions can be granted via Azure role-based-access-control to the specific Azure SQLDB instance. Do not share user assigned managed identities across multiple services if not strictly required.</t>
+          <t>Azure SQL Database Auditing tracks database events and writes them to an audit log in your Azure storage account. Auditing helps you understand database activity and gain insight into discrepancies and anomalies that could indicate business concerns or suspected security violations as well as helps you meet regulatory compliance. By default auditing policy includes all actions (queries, stored procedures and successful and failed logins) against the databases, which may result in high volume of audit logs. It's recommended for customers to configure auditing for different types of actions and action groups using PowerShell.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2413,7 +2413,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>69891194-5074-4e30-8f69-4efc3c580900</t>
+          <t>4082e31d-35f4-4a49-8507-d3172cc930a6</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2432,27 +2432,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Auditing</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Protect and limit highly privileged users that have access to Azure SQL Database using Privileged Identity Management (PIM) and Just-in-time (JIT) access</t>
+          <t>Ensure that Azure SQL Database Auditing logs are backed up and secured in the selected repository type</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>You should limit the number of highly privileged accounts or roles and protect these accounts at an elevated level. Users with this privilege can directly or indirectly read and modify every resource in your Azure environment. You can enable just-in-time (JIT) privileged access to Azure resources and Azure AD using Azure AD PIM. JIT grants temporary permissions to perform privileged tasks only when users need it. PIM can also generate security alerts when there is suspicious or unsafe activity in your Azure AD organization.</t>
+          <t xml:space="preserve">Azure SQL Database Auditing logs can be written to external storage accounts, Log Analytics workspace or Event Hub. Be sure to protect the target repository using backups and secured configuration. Use Azure SQL Database Managed Identity to access the storage and set an explicit retention period. Do not grant permissions to administrators to the audit log repository. Use a different target storage for --Enabling Auditing of Microsoft support operations--. </t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2463,7 +2463,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-1-protect-and-limit-highly-privileged-users</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2471,7 +2471,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>c496b249-94d4-4c04-acd0-92c1da7be81f</t>
+          <t>9b64bc50-b60f-4035-bf7a-28c4806dfb46</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2482,22 +2482,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Permissions</t>
+          <t>Auditing</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Ensure that users are assigned the minimum level of access necessarily to complete their job functions</t>
+          <t>Ensure that Azure SQL Database Activity Log is collected and integrated with Auditing logs</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>The principle of least privilege states that users shouldn't have more privileges than needed to complete their tasks. High-privileged database and server users can perform many configuration and maintenance activities on the database and can also drop databases in Azure SQL instance. Tracking database owners and privileged accounts is important to avoid having excessive permission.</t>
+          <t>The Azure Monitor activity log is a platform log in Azure that provides insight into subscription-level events. The activity log includes information like when a resource is modified. It is recommended to send this activity log to the same external storage repository as the Azure SQL Database Audit Log (storage account, Log Analytics workspace, Event Hub).</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#implement-principle-of-least-privilege</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2521,7 +2521,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5fe5281f-f0f9-4842-a682-8baf18bd8316</t>
+          <t>fcd34708-87ac-4efc-aaf6-57a47f76644a</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2532,22 +2532,22 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Review and reconcile Azure SQL Database user access regularly using Azure AD access review and reports</t>
+          <t>Ensure that Azure SQL Database Auditing logs are being presented in to your organizations SIEM/SOAR</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>Azure SQL uses Azure Active Directory (Azure AD) accounts to manage its resources, review user accounts, and access assignments regularly to ensure the accounts and their access are valid. You can use Azure AD and access reviews to review group memberships, access to enterprise applications, and role assignments.</t>
+          <t>Forward any logs from Azure SQL to your  Security Information and Event Management (SIEM) and Security Orchestration Automation and Response (SOAR). Ensure that you are monitoring different types of Azure assets for potential threats and anomalies. Focus on getting high-quality alerts to reduce false positives for analysts to sort through. Alerts can be sourced from log data, agents, or other data.</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
@@ -2563,7 +2563,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-3-review-and-reconcile-user-access-regularly</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2571,7 +2571,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>552416b1-e9d8-4acf-83ed-d167bb9b3744</t>
+          <t>f96e127e-9572-453a-b325-ff89ae9f6b44</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2582,22 +2582,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Use privileged access workstations for administrator access</t>
+          <t>Ensure that Azure SQL Database Activity Log data is presented in to your SIEM/SOAR</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Ensure that only highly secure privileged access workstations or Azure Bastion are used, and/or that devices are verified secure before connecting using a product like Intune.</t>
+          <t>Forward any logs from Azure SQL to your  Security Information and Event Management (SIEM) and Security Orchestration Automation and Response (SOAR), which can be used to set up custom threat detections. Ensure that you are monitoring different types of Azure assets for potential threats and anomalies. Focus on getting high-quality alerts to reduce false positives for analysts to sort through. Alerts can be sourced from log data, agents, or other data.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2613,7 +2613,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-6-use-privileged-access-workstations</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2621,7 +2621,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>a0af61fa-e714-4993-8f64-e1ae3bdb98a8</t>
+          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2632,27 +2632,27 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Lockbox</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Review and enable Customer Lockbox for Azure SQL Database access by Microsoft personnel</t>
+          <t>Ensure that you have response plans for malicious or aberrant audit logging events</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Most operations, support, and troubleshooting performed by Microsoft personnel and sub-processors do not require access to customer data. In those rare circumstances where such access is required, Customer Lockbox for Microsoft Azure provides an interface for customers to review and approve or reject customer data access requests.  In support scenarios where Microsoft needs to access customer data, Azure SQL Database supports Customer Lockbox to provide an interface for you to review and approve or reject customer data access requests.</t>
+          <t>Security Operation Center (SOC) team should create an incident response plan (playbooks or manual responses) to investigate and mitigate tampering, malicious activities, and other anomalous behaviors.</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>37b6eb0f-553d-488f-8a8a-cb9bf97388ff</t>
+          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2682,27 +2682,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Privileged Access</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Permissions</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Ensure that distinct applications will be assigned different credentials with minimal permissions to access Azure SQL Database</t>
+          <t>Review Public vs. Private Access connectivity methods and select the appropriate one for the workload</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>Identities (both Users and SPNs) should be scoped to the least amount of access needed to perform the function.  A higher number of tightly scoped SPNs should be used, instead of having one SPN with multiple sets of unrelated permissions. For example, if there are three external web applications hosted on-prem that make queries to the Azure SQL Database, they should not all use the same SPN for these activities.  Instead, they should each have their own tightly scoped SPN.</t>
+          <t>When you create a logical server from the Azure portal for Azure SQL Database, the result is a public endpoint that is visible and reachable over the public network (Public Access). You can then limit connectivity based on firewall rules and Service Endpoint. You can also configure private connectivity only limiting connections to internal networks using Private Endpoint (Private Access). Private Access using Private Endpoint should be the default unless a business case or performance/technical reason applies that cannot support it. Usage of Private Endpoints has performance implications that need to be considered and assessed.</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2713,7 +2713,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#im-3-use-azure-ad-single-sign-on-sso-for-application-access</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2721,7 +2721,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>7b5b55e5-4750-4920-be97-eb726c256a5c</t>
+          <t>2c6d356a-1784-475b-a42c-ec187dc8c925</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2732,27 +2732,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>If cryptographic proof of data integrity  is a critical requirement, Ledger feature should be considered</t>
+          <t>Keep default Azure SQL Database Connection Policy if not differently required and justified</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>The Ledger feature provides tamper-evidence capabilities in your database. You can cryptographically attest to other parties, such as auditors or other business parties, that your data hasn't been tampered with. Ledger helps protect data from any attacker or high-privileged user, including database administrators (DBAs), system administrators, and cloud administrators.</t>
+          <t>IMPORTANT: Connections to private endpoint only support Proxy as the connection policy. When using private endpoints connections are proxied via the Azure SQL Database gateway to the database nodes. Clients will not have a direct connection.</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2763,7 +2763,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-architecture</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2771,7 +2771,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2563f498-e2d3-42ea-9e7b-5517881a06a2</t>
+          <t>557b3ce5-bada-4296-8d52-a2d447bc1718</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2782,27 +2782,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Database Digest</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Confidential Ledger to store database digests only if advanced security features are required</t>
+          <t>Ensure Allow Azure Services and Resources to Access this Server setting is disabled in Azure SQL Database firewall</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>The hash of the latest block in the database ledger is called the database digest. It represents the state of all ledger tables in the database at the time when the block was generated. Generating a database digest is efficient, because it involves computing only the hashes of the blocks that were recently appended. Azure Confidential Ledger is one of the supported store, it can be used and supports automatic generation and storage of database digests. Azure Ledger provides advanced security features like Blockchain Ledger Proof and Confidential Hardware Enclaves. Use it only if advanced security features are required, otherwise revert to Azure storage.</t>
+          <t>This option configures the firewall to allow all connections from Azure, including connections from the subscriptions of other customers. If you select this option, make sure that your login and user permissions limit access to authorized users only. If not strictly required, keep this setting to OFF.</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2813,7 +2813,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/technology-choices/multiparty-computing-service#confidential-ledger-and-azure-blob-storage</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2821,7 +2821,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>0e853380-50ba-4bce-b2fd-5c7391c85ecc</t>
+          <t>f48efacf-4405-4e8d-9dd0-16c5302ed082</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2832,22 +2832,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Database Digest</t>
+          <t>Outbound Control</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>If Azure storage account is used to store database digests, ensure security is properly configured</t>
+          <t>Block or restrict outbound REST API calls to external endpoints</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>The hash of the latest block in the database ledger is called the database digest. It represents the state of all ledger tables in the database at the time when the block was generated. Generating a database digest is efficient, because it involves computing only the hashes of the blocks that were recently appended. Azure Blob Storage with Immutable Storage feature can be used and supports automatic generation and storage of database digests. To prevent tampering of your digest files, configure and lock a retention policy for your container.</t>
+          <t>Azure SQL Database has a new built-in feature that allows native integration with external REST endpoints. This means that integration of Azure SQL Database with Azure Functions, Azure Logic Apps, Cognitive Services, Event Hubs, Event Grid, Azure Containers, API Management and in general any REST or even GraphQL endpoint. If not properly restricted, code inside an Azure SQL Database database could leverage this mechanism to exfiltrate data. If not strictly required, it is recommended to block or restrict this feature using Outbound Firewall Rules.</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2863,7 +2863,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-digest-management</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/system-stored-procedures/sp-invoke-external-rest-endpoint-transact-sql</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2871,7 +2871,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>afefb2d3-95da-4ac9-acf5-33d18b32ef9a</t>
+          <t>cb3274a7-e36d-46f6-8de5-46d30c8dde8e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2882,22 +2882,22 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Integrity</t>
+          <t>Outbound Control</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Schedule the Ledger verification process regularly to verify data integrity</t>
+          <t>If outbound network access is required, it is recommended to configure outbound networking restrictions using built-in Azure SQL Database control feature</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Ledger provides a form of data integrity called forward integrity, which provides evidence of data tampering on data in your ledger tables. The database verification process takes as input one or more previously generated database digests. It then recomputes the hashes stored in the database ledger based on the current state of the ledger tables. If the computed hashes don't match the input digests, the verification fails. The failure indicates that the data has been tampered with. The verification process reports all inconsistencies that it detects.</t>
+          <t>Outbound firewall rules limit network traffic from the Azure SQL Database logical server to a customer defined list of Azure Storage accounts and Azure SQL Database logical servers. Any attempt to access storage accounts or databases not in this list is denied.</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
@@ -2913,7 +2913,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-database-verification</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/outbound-firewall-rule-overview</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2921,7 +2921,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f8d4ffda-8aac-4cc6-b72b-c81cb8625420</t>
+          <t>a566dd3d-314e-4a94-9378-102c42d82b38</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2932,22 +2932,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Ledger</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Recovery</t>
+          <t>Private Access</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Prepare a response plan to investigate and repair a database after a tampering event</t>
+          <t>If Private Access connectivity is used, ensure that you are using the Private Endpoint, Azure Virtual Network, Azure Firewall, and Azure Network Security Group checklists</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>Depending on the type of tampering, there are cases where you can repair the ledger without losing data. In the article contained in the --More Info-- column, different scenarios and recovery techniques are described.</t>
+          <t>Private Endpoint is created inside a subnet in an Azure Virtual Network. Proper security configuration must be applied also to the containing network environment, including NSG/ASG, UDR, firewall, monitoring and auditing.</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2963,14 +2963,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-how-to-recover-after-tampering</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>804fc554-6554-4842-91c1-713b32f99902</t>
+          <t>246cd832-f550-4af0-9c74-ca9baeeb8860</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2981,27 +2981,27 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Auditing</t>
+          <t>Private Access</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Auditing is enabled at the server level</t>
+          <t>If Private Endpoint (Private Access) is used, consider disabling Public Access connectivity</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Azure SQL Database Auditing tracks database events and writes them to an audit log in your Azure storage account. Auditing helps you understand database activity and gain insight into discrepancies and anomalies that could indicate business concerns or suspected security violations as well as helps you meet regulatory compliance. By default auditing policy includes all actions (queries, stored procedures and successful and failed logins) against the databases, which may result in high volume of audit logs. It's recommended for customers to configure auditing for different types of actions and action groups using PowerShell.</t>
+          <t>When adding a Private Endpoint connection, public routing to your logical server isn't blocked by default. In the --Firewall and virtual networks-- pane, the setting --Deny public network access-- is not selected by default. To disable public network access, ensure that you select --Deny public network access--.</t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3012,7 +3012,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3020,7 +3020,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>4082e31d-35f4-4a49-8507-d3172cc930a6</t>
+          <t>3a0808ee-ea7a-47ab-bdce-920a6a2b3881</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3031,27 +3031,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Auditing</t>
+          <t>Private Access</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Auditing logs are backed up and secured in the selected repository type</t>
+          <t>If Private Endpoint (Private Access) is used, apply NSG and eventually ASG to limit incoming source IP address ranges</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure SQL Database Auditing logs can be written to external storage accounts, Log Analytics workspace or Event Hub. Be sure to protect the target repository using backups and secured configuration. Use Azure SQL Database Managed Identity to access the storage and set an explicit retention period. Do not grant permissions to administrators to the audit log repository. Use a different target storage for --Enabling Auditing of Microsoft support operations--. </t>
+          <t>Network Security Group (NSG) and Application Security Group (ASG) can be now applied to subnet containing Private Endpoints to restrict connections to Azure SQLDB based on internal source IP ranges.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3062,7 +3062,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/private-link/private-endpoint-overview#network-security-of-private-endpoints</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3070,7 +3070,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>9b64bc50-b60f-4035-bf7a-28c4806dfb46</t>
+          <t>8600527e-e8c4-4424-90ef-1f0dca0224f2</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3081,22 +3081,22 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>SIEM/SOAR</t>
+          <t>Private Access</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Auditing logs are being presented in to your organizations SIEM/SOAR</t>
+          <t>Apply Network Security Groups (NSG) and firewall rules to restrict access to Azure SQL Managed Instance internal subnet</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t>Forward any logs from Azure SQL to your  Security Information and Event Management (SIEM) and Security Orchestration Automation and Response (SOAR). Ensure that you are monitoring different types of Azure assets for potential threats and anomalies. Focus on getting high-quality alerts to reduce false positives for analysts to sort through. Alerts can be sourced from log data, agents, or other data.</t>
+          <t>A Managed Instance (SQL MI) can be isolated inside a virtual network to prevent external access. Applications and tools that are in the same or peered virtual network in the same region could access it directly. Applications and tools that are in different region could use virtual-network-to-virtual-network connection or ExpressRoute circuit peering to establish connection. Customer should use Network Security Groups (NSG), and eventually internal firewalls, to restrict access over port 1433 only to resources that require access to a managed instance.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
@@ -3112,14 +3112,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/managed-instance/connectivity-architecture-overview</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>f96e127e-9572-453a-b325-ff89ae9f6b44</t>
+          <t>18123ef4-a0a6-45e3-87fe-7f454f65d975</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3130,27 +3130,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Auditing</t>
+          <t>Public Access</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Activity Log is collected and integrated with Auditing logs</t>
+          <t>If Public Access connectivity is used, leverage Service Endpoint to restrict access from selected Azure Virtual Networks</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>The Azure Monitor activity log is a platform log in Azure that provides insight into subscription-level events. The activity log includes information like when a resource is modified. It is recommended to send this activity log to the same external storage repository as the Azure SQL Database Audit Log (storage account, Log Analytics workspace, Event Hub).</t>
+          <t>Azure Virtual Network Service Endpoint is preferred solution if you want to establish a direct connection to the Azure SQL Database backend nodes using Redirect policy. This will allow access in high performance mode and is the recommended approach from a performance perspective.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3161,14 +3161,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview?view=azuresql#ip-vs-virtual-network-firewall-rules</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>fcd34708-87ac-4efc-aaf6-57a47f76644a</t>
+          <t>55187443-6852-4fbd-99c6-ce303597ca7f</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3179,22 +3179,22 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>SIEM/SOAR</t>
+          <t>Public Access</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure SQL Database Activity Log data is presented in to your SIEM/SOAR</t>
+          <t>If Public Access connectivity is used, ensure that only specific known IPs are added to the firewall</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t>Forward any logs from Azure SQL to your  Security Information and Event Management (SIEM) and Security Orchestration Automation and Response (SOAR), which can be used to set up custom threat detections. Ensure that you are monitoring different types of Azure assets for potential threats and anomalies. Focus on getting high-quality alerts to reduce false positives for analysts to sort through. Alerts can be sourced from log data, agents, or other data.</t>
+          <t>The Azure SQL Database firewall allows you to specify IP address ranges from which communications are accepted. This approach is fine for stable IP addresses that are outside the Azure private network.</t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
@@ -3210,7 +3210,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3218,7 +3218,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
+          <t>a73e32da-b3f4-4960-b5ec-2f42a557bf31</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3234,22 +3234,22 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Public Access</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Review Public vs. Private Access connectivity methods and select the appropriate one for the workload</t>
+          <t>If Public Access connectivity is used and controlled by Azure SQL Database firewall rules, use database-level over server-level IP rules</t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>When you create a logical server from the Azure portal for Azure SQL Database, the result is a public endpoint that is visible and reachable over the public network (Public Access). You can then limit connectivity based on firewall rules and Service Endpoint. You can also configure private connectivity only limiting connections to internal networks using Private Endpoint (Private Access). Private Access using Private Endpoint should be the default unless a business case or performance/technical reason applies that cannot support it.</t>
+          <t>We recommend that you use database-level IP firewall rules whenever possible. This practice enhances security and makes your database more portable. Use server-level IP firewall rules for administrators. Also use them when you have many databases that have the same access requirements, and you don't want to configure each database individually.</t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3260,7 +3260,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/firewall-configure</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3268,7 +3268,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2c6d356a-1784-475b-a42c-ec187dc8c925</t>
+          <t>e0f31ac9-35c8-4bfd-9865-edb60ffc6768</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3284,22 +3284,22 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Public Access</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Keep default Azure SQL Database Connection Policy if not differently required and justified</t>
+          <t>Do not enable Azure SQL Managed Instance public endpoint</t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>IMPORTANT: Connections to private endpoint only support Proxy as the connection policy. When using private endpoints connections are proxied via the Azure SQL Database gateway to the database nodes. Clients will not have a direct connection.</t>
+          <t>A Managed Instance (SQL MI) can be isolated inside a virtual network to prevent external access. The Managed Instance public endpoint is not enabled by default, must be explicitly enabled, only if strictly required. If company policy disallows the use of public endpoints, use Azure Policy to prevent enabling public endpoints in the first place.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3310,7 +3310,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-architecture</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/managed-instance/public-endpoint-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3318,7 +3318,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>557b3ce5-bada-4296-8d52-a2d447bc1718</t>
+          <t>b8435656-143e-41a8-9922-61d34edb751a</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3334,22 +3334,22 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Private Access</t>
+          <t>Public Access</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>If Private Access connectivity is used, ensure that you are using the Private Endpoint, Azure Virtual Network, Azure Firewall, and Azure Network Security Group checklists</t>
+          <t>Restrict access if Azure SQL Managed Instance public endpoint is required</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>Private Endpoint is created inside a subnet in an Azure Virtual Network. Proper security configuration must be applied also to the containing network environment, including NSG/ASG, UDR, firewall, monitoring and auditing.</t>
+          <t>A Managed Instance (SQL MI) public endpoint is not enabled by default, must be explicitly enabled, only if strictly required. In this case, it is recommended to apply a Network Security Groups (NSG) to restrict access to port 3342 only to trusted source IP addresses.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3360,14 +3360,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/managed-instance/public-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>246cd832-f550-4af0-9c74-ca9baeeb8860</t>
+          <t>057dd298-8726-4aa6-b590-1f81d2e30421</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3378,27 +3378,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Privileged Access</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Private Access</t>
+          <t>Lockbox</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>If Private Endpoint (Private Access) is used, consider disabling Public Access connectivity</t>
+          <t>Review and enable Customer Lockbox for Azure SQL Database access by Microsoft personnel</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>When adding a Private Endpoint connection, public routing to your logical server isn't blocked by default. In the --Firewall and virtual networks-- pane, the setting --Deny public network access-- is not selected by default. To disable public network access, ensure that you select --Deny public network access--.</t>
+          <t>Most operations, support, and troubleshooting performed by Microsoft personnel and sub-processors do not require access to customer data. In those rare circumstances where such access is required, Customer Lockbox for Microsoft Azure provides an interface for customers to review and approve or reject customer data access requests.  In support scenarios where Microsoft needs to access customer data, Azure SQL Database supports Customer Lockbox to provide an interface for you to review and approve or reject customer data access requests.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3409,7 +3409,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3417,7 +3417,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>3a0808ee-ea7a-47ab-bdce-920a6a2b3881</t>
+          <t>37b6eb0f-553d-488f-8a8a-cb9bf97388ff</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3428,22 +3428,22 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Privileged Access</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Private Access</t>
+          <t>Permissions</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>If Private Endpoint (Private Access) is used, apply NSG and eventually ASG to limit incoming source IP address ranges</t>
+          <t>Ensure that users are assigned the minimum level of access necessarily to complete their job functions</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t>Network Security Group (NSG) and Application Security Group (ASG) can be now applied to subnet containing Private Endpoints to restrict connections to Azure SQLDB based on internal source IP ranges.</t>
+          <t>The principle of least privilege states that users shouldn't have more privileges than needed to complete their tasks. High-privileged database and server users can perform many configuration and maintenance activities on the database and can also drop databases in Azure SQL instance. Tracking database owners and privileged accounts is important to avoid having excessive permission.</t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
@@ -3459,14 +3459,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-endpoint-overview#network-security-of-private-endpoints</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#implement-principle-of-least-privilege</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>8600527e-e8c4-4424-90ef-1f0dca0224f2</t>
+          <t>5fe5281f-f0f9-4842-a682-8baf18bd8316</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3477,27 +3477,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Privileged Access</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Public Access</t>
+          <t>Permissions</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>If Public Access connectivity is used, leverage Service Endpoint to restrict access from selected Azure Virtual Networks</t>
+          <t>Ensure that distinct applications will be assigned different credentials with minimal permissions to access Azure SQL Database</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Azure Virtual Network Service Endpoint is preferred solution if you want to establish a direct connection to the Azure SQL Database backend nodes using Redirect policy. This will allow access in high performance mode.</t>
+          <t>Identities (both Users and SPNs) should be scoped to the least amount of access needed to perform the function.  A higher number of tightly scoped SPNs should be used, instead of having one SPN with multiple sets of unrelated permissions. For example, if there are three external web applications hosted on-prem that make queries to the Azure SQL Database, they should not all use the same SPN for these activities.  Instead, they should each have their own tightly scoped SPN.</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3508,14 +3508,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview?view=azuresql#ip-vs-virtual-network-firewall-rules</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#im-3-use-azure-ad-single-sign-on-sso-for-application-access</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>55187443-6852-4fbd-99c6-ce303597ca7f</t>
+          <t>7b5b55e5-4750-4920-be97-eb726c256a5c</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3526,24 +3526,20 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Public Access</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>If Public Access connectivity is used, ensure that only specific known IPs are added to the firewall</t>
-        </is>
-      </c>
-      <c r="D57" s="22" t="inlineStr">
-        <is>
-          <t>The Azure SQL Database firewall allows you to specify IP address ranges from which communications are accepted. This approach is fine for stable IP addresses that are outside the Azure private network.</t>
-        </is>
-      </c>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+        </is>
+      </c>
+      <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3557,14 +3553,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>a73e32da-b3f4-4960-b5ec-2f42a557bf31</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3575,27 +3571,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Public Access</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>If Public Access connectivity is used and controlled by Azure SQL Database firewall rules, use database-level over server-level IP rules whenever possible</t>
-        </is>
-      </c>
-      <c r="D58" s="22" t="inlineStr">
-        <is>
-          <t>We recommend that you use database-level IP firewall rules whenever possible. This practice enhances security and makes your database more portable. Use server-level IP firewall rules for administrators. Also use them when you have many databases that have the same access requirements, and you don't want to configure each database individually.</t>
-        </is>
-      </c>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+        </is>
+      </c>
+      <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3606,14 +3598,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/firewall-configure</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e0f31ac9-35c8-4bfd-9865-edb60ffc6768</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3624,24 +3616,20 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Ensure Allow Azure Services and Resources to Access this Server setting is disabled in Azure SQL Database firewall</t>
-        </is>
-      </c>
-      <c r="D59" s="22" t="inlineStr">
-        <is>
-          <t>This option configures the firewall to allow all connections from Azure, including connections from the subscriptions of other customers. If you select this option, make sure that your login and user permissions limit access to authorized users only. If not strictly required, keep this setting to OFF.</t>
-        </is>
-      </c>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+        </is>
+      </c>
+      <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3655,14 +3643,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>f48efacf-4405-4e8d-9dd0-16c5302ed082</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3673,24 +3661,20 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Outbound Control</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Deny all permissions for outbound REST API calls to external endpoints</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="inlineStr">
-        <is>
-          <t>Azure SQL Database has a new built-in feature that allows native integration with external REST endpoints. This means that integration of Azure SQL Database with Azure Functions, Azure Logic Apps, Cognitive Services, Event Hubs, Event Grid, Azure Containers, API Management and in general any REST or even GraphQL endpoint. If not properly restricted, code inside an Azure SQL Database database could leverage this mechanism to exfiltrate data. If not strictly required, it is recommended to deny explicitly the permissions necessary to use this feature.</t>
-        </is>
-      </c>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3704,14 +3688,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/system-stored-procedures/sp-invoke-external-rest-endpoint-transact-sql</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>cb3274a7-e36d-46f6-8de5-46d30c8dde8e</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3722,24 +3711,20 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Outbound Control</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>If outbound network access is required, it is recommended to configure outbound networking restrictions using built-in Azure SQL Database control feature</t>
-        </is>
-      </c>
-      <c r="D61" s="22" t="inlineStr">
-        <is>
-          <t>Outbound firewall rules limit network traffic from the Azure SQL Database logical server to a customer defined list of Azure Storage accounts and Azure SQL Database logical servers. Any attempt to access storage accounts or databases not in this list is denied.</t>
-        </is>
-      </c>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+        </is>
+      </c>
+      <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3753,14 +3738,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/outbound-firewall-rule-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>a566dd3d-314e-4a94-9378-102c42d82b38</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -11824,7 +11809,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F62" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/sqldb_security_checklist.en.xlsx
+++ b/spreadsheet/sqldb_security_checklist.en.xlsx
@@ -1332,7 +1332,11 @@
       <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
-      <c r="L12" s="26" t="inlineStr"/>
+      <c r="L12" s="26" t="inlineStr">
+        <is>
+          <t>d401509b-2629-4484-9a7f-af0d29a7778f</t>
+        </is>
+      </c>
       <c r="M12" s="26" t="n"/>
       <c r="N12" s="26" t="n"/>
       <c r="O12" s="26" t="n"/>
@@ -2126,7 +2130,11 @@
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
-      <c r="L28" s="26" t="inlineStr"/>
+      <c r="L28" s="26" t="inlineStr">
+        <is>
+          <t>88287d4a-8bb8-4640-ad78-03f51354d003</t>
+        </is>
+      </c>
       <c r="M28" s="26" t="n"/>
       <c r="N28" s="26" t="n"/>
       <c r="O28" s="26" t="n"/>
@@ -2671,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
+          <t>19ec7c97-c563-4e1d-82f0-54d6ec12e754</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -11632,7 +11640,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11716,7 +11724,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11773,43 +11781,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F57" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
